--- a/HIDOC/hidoc.xlsx
+++ b/HIDOC/hidoc.xlsx
@@ -14,94 +14,996 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="330">
   <si>
     <t>제목</t>
   </si>
   <si>
-    <t>의사명</t>
-  </si>
-  <si>
-    <t>병원명</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>무좀이 치료가 잘 안되는거같아요</t>
+    <t>질문 시간</t>
+  </si>
+  <si>
+    <t>질문</t>
+  </si>
+  <si>
+    <t>병원 이름</t>
+  </si>
+  <si>
+    <t>답변</t>
+  </si>
+  <si>
+    <t>천장관절염</t>
+  </si>
+  <si>
+    <t>엄지손가락 손바닥부분 통증</t>
+  </si>
+  <si>
+    <t>부정맥, 심혈관 질문</t>
+  </si>
+  <si>
+    <t>간염 ?</t>
+  </si>
+  <si>
+    <t>피임약복용</t>
+  </si>
+  <si>
+    <t>고데기코드선이 엄지발가락 위로 떨어졌는데 금이 갈수있나요?</t>
+  </si>
+  <si>
+    <t>비염약 좀 봐주시겠어요? 스테로이드성 약물 봐주세요!!</t>
+  </si>
+  <si>
+    <t>성기에 좁쌀같은게 있습니다</t>
+  </si>
+  <si>
+    <t>간유리 음영이 있다고 확인 되었습니다.</t>
+  </si>
+  <si>
+    <t>오른쪽 허리에 만성 요통이 있습니다.</t>
+  </si>
+  <si>
+    <t>어깨 통증  질문있습니다.</t>
+  </si>
+  <si>
+    <t>역류성식도염 질문드려요</t>
+  </si>
+  <si>
+    <t>팔꿈치 통증, 굽혔다가 필때 힘빠짐과 잦은 뚝소리</t>
+  </si>
+  <si>
+    <t>일자허리</t>
+  </si>
+  <si>
+    <t>만성 요통 질문입니다</t>
+  </si>
+  <si>
+    <t>재질문</t>
+  </si>
+  <si>
+    <t>어금니 레/진  높이</t>
+  </si>
+  <si>
+    <t>건선 환자입니다 건선이 맞을까요?</t>
+  </si>
+  <si>
+    <t>쥐젖 제거후 1년이 지났는데요</t>
+  </si>
+  <si>
+    <t>5주째 비뇨기,피부쪽 증상</t>
+  </si>
+  <si>
+    <t>입술이 가끔 굳는데 뇌졸중 초기증상인가요?</t>
+  </si>
+  <si>
+    <t>유방 모양</t>
+  </si>
+  <si>
+    <t>다래끼 수술 후 생긴 쌍꺼풀</t>
+  </si>
+  <si>
+    <t>흑변일까요?(사진포함)</t>
+  </si>
+  <si>
+    <t>2형 당뇨입니다</t>
+  </si>
+  <si>
+    <t>탈모증상</t>
+  </si>
+  <si>
+    <t>설사 변비 반복</t>
+  </si>
+  <si>
+    <t>이거 알러지인가요? 병원가봐야할까요?</t>
+  </si>
+  <si>
+    <t>요잠혈 1양성이 나왔는데요</t>
+  </si>
+  <si>
+    <t>제가 물에서 사정을 했는데임신할 가능성이 있는지</t>
+  </si>
+  <si>
+    <t>이정도로 목뼈가 틀어질수도 있는지</t>
+  </si>
+  <si>
+    <t>손등~손목에 붉은 반점</t>
+  </si>
+  <si>
+    <t>약을 먹어도 식도염이 낫질 않아요</t>
+  </si>
+  <si>
+    <t>진통제 근이완제 소염제 장기복용문의</t>
+  </si>
+  <si>
+    <t>코로나백신 접종 후 스테로이드약</t>
+  </si>
+  <si>
+    <t>아침마다 때때로 심장두근거림 및 맥박100이상. 공황장애 없음. 심방세동인가요?</t>
+  </si>
+  <si>
+    <t>변이형 협심증 환자입니다. 약 복용질문</t>
+  </si>
+  <si>
+    <t>식사시에 목이막혀요</t>
   </si>
   <si>
     <t>새끼 발톱에.. 혹시 흑색종 인가요?</t>
   </si>
   <si>
-    <t>갈비뼈 높낮이가 삐뚤어진 것 같아요.</t>
-  </si>
-  <si>
-    <t>이거 알러지인가요? 병원가봐야할까요?</t>
-  </si>
-  <si>
-    <t>욕창,궤양 같은건가요?</t>
-  </si>
-  <si>
-    <t>역류성인후두LPR</t>
+    <t>음주후 혈압저하</t>
+  </si>
+  <si>
+    <t>외음부옆 사타구니 종기관련문의드립니다ㅠㅠ</t>
+  </si>
+  <si>
+    <t>피부에 볼록한 점이 간지러워요</t>
+  </si>
+  <si>
+    <t>소화기능 장기능이 안좋아요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간수치203, 공복 혈당 123 먹지말아야할 영양제 있을까요? </t>
+  </si>
+  <si>
+    <t>화이자 백신 접종 후 발가락 붓기</t>
   </si>
   <si>
     <t>에이즈 의심인가요?</t>
   </si>
   <si>
-    <t>김우진 전문의</t>
-  </si>
-  <si>
-    <t>김대연 전문의</t>
-  </si>
-  <si>
-    <t>남상호 전문의</t>
-  </si>
-  <si>
-    <t>장형준 전문의</t>
-  </si>
-  <si>
-    <t>이영진 전문의</t>
+    <t>엄지손가락에난것이 뭔지 모르겠어요 ㅠ</t>
+  </si>
+  <si>
+    <t>피부과약 정신과약 같이 복용</t>
+  </si>
+  <si>
+    <t>임신가능성</t>
+  </si>
+  <si>
+    <t>목 앞쪽, 턱, 볼이 당깁니다.</t>
+  </si>
+  <si>
+    <t>혀가 따갑고 저린다고 하는데 혹시 어떤 질환이 예상되는지 알수있을까요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운동하는 사람 인데요. 이온음료 충치 걱정 </t>
+  </si>
+  <si>
+    <t>치아 고름</t>
+  </si>
+  <si>
+    <t>코로나백신 접종후 스테로이드약</t>
+  </si>
+  <si>
+    <t>신우신염</t>
+  </si>
+  <si>
+    <t>깁스를 하고왔는데</t>
+  </si>
+  <si>
+    <t>갑상선 낭종 결과를 받았는데 많이 심각할까요?</t>
+  </si>
+  <si>
+    <t>역류성 식도염이나 역류성 인후염의 경우 침 삼키는 것도 힘들 수 있나요?</t>
+  </si>
+  <si>
+    <t>가슴 사이 명치 위쪽으로 볼록하게 튀어나왔어요.</t>
+  </si>
+  <si>
+    <t>마그밀 장기복용</t>
+  </si>
+  <si>
+    <t>설사 검사</t>
+  </si>
+  <si>
+    <t>아이 발가락이 다쳤는데</t>
+  </si>
+  <si>
+    <t>착상혈 일수 있나요 ?</t>
+  </si>
+  <si>
+    <t>늑골 골절?</t>
+  </si>
+  <si>
+    <t>성관계중 출혈</t>
+  </si>
+  <si>
+    <t>눈에 이물감</t>
+  </si>
+  <si>
+    <t>성대결절</t>
+  </si>
+  <si>
+    <t>피부에 볼록 올라온게 다발합니다. 뭘까요?</t>
+  </si>
+  <si>
+    <t>임신 가능성 여부와 응급피임약</t>
+  </si>
+  <si>
+    <t>임신가능성 질문드립니다.</t>
+  </si>
+  <si>
+    <t>발뒤꿈치 통증 입니다</t>
+  </si>
+  <si>
+    <t>대장내시경만으로 대장암 구별할 수 있나요?</t>
+  </si>
+  <si>
+    <t>가래 질문드려요</t>
+  </si>
+  <si>
+    <t>이 약하고 비슷한 성분의약 약국에서 구매 가능한게 있을까요?</t>
+  </si>
+  <si>
+    <t>위 내시경 후 식사</t>
+  </si>
+  <si>
+    <t>성기에 상처가 있습니다.</t>
+  </si>
+  <si>
+    <t>요도낭종 관련질문</t>
+  </si>
+  <si>
+    <t>췌장수술후 항암끝내고</t>
+  </si>
+  <si>
+    <t>작은 상처.. 찰과상 치료 방법 궁금합니다 ㅜㅠ</t>
+  </si>
+  <si>
+    <t>낮에 병원 질염땜에 소독 갔다왔어요</t>
+  </si>
+  <si>
+    <t>알로에전입 성분</t>
+  </si>
+  <si>
+    <t>코로나 백신 맞고 열나는건 다른 사람한테 열 옮기나요?</t>
+  </si>
+  <si>
+    <t>발목 염증 통증 질문 합니다.</t>
+  </si>
+  <si>
+    <t>허벅지 뒤쪽, 무릎 통증 관련</t>
+  </si>
+  <si>
+    <t>프라목신염산염 부작용??</t>
+  </si>
+  <si>
+    <t>화질이 안좋은 영상을 시청하면 시력이 나빠지나요?</t>
+  </si>
+  <si>
+    <t>항문 종기? 농양? 질문드립니다</t>
+  </si>
+  <si>
+    <t>선생님 마지막으로 여쭤볼게있는데요 이거 재발한건가요??</t>
+  </si>
+  <si>
+    <t>원래 손바닥에 엄지와 검지 밑 부분이 볼록튀어나와 있나요?</t>
+  </si>
+  <si>
+    <t>피임약 복용 두번 째 달 3일째되는 날</t>
+  </si>
+  <si>
+    <t>눈이 처지고 변했습니다! 눈성형 관련 질문 등</t>
+  </si>
+  <si>
+    <t>머리 백회 통증</t>
+  </si>
+  <si>
+    <t>2021.07.24</t>
+  </si>
+  <si>
+    <t>2021.07.23</t>
+  </si>
+  <si>
+    <t>2021.07.22</t>
+  </si>
+  <si>
+    <t>2021.06.15</t>
+  </si>
+  <si>
+    <t>2021.07.20</t>
+  </si>
+  <si>
+    <t>2021.07.21</t>
+  </si>
+  <si>
+    <t>2021.07.05</t>
+  </si>
+  <si>
+    <t>안녕하세요^^6월초에 천장관절염 진단을 받았습니다.목,허리디스크도 있습니다.엑스레이 찍다가 오른쪽에 천장관절염이 있다는걸 알게됐고그때부터 통증이 심해진것 같아요 ㅠㅠ요즘 사타구니로 허벅지 엉덩이가 아파요 ㅠㅠ양반다리 하기도 힘들고 옆으로 누우며 조금 신경이 쓰일정도로 아픕니다.병원에서는 증상을 말하면 허리 때문이라고 합니다.소염진통제만 처방해 주는데 소염진통제로 천장관절염이 나을수 있을까요?오늘 처방약은 펠루비정,에스트렌정 처방받았어요.의사샘은 천장관절염 신경 안써도 된다 어디가 아프든 천장관절염과 상관이 없다고 하십니다. 전 이러다가 더 심해질까 걱정이 되네요 ㅠㅠ 맞게 치료하고 있는건가요?전 어떻게 해야 할까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요.엄지쪽 손바닥방향 통증이 생겨 문의드려요.이 증상 드궤르뱅 증상 중 하나가 맞는건가요?가만히 있어도 아퍼  문의드려요.</t>
+  </si>
+  <si>
+    <t>안녕하세요.현재 빈번이 있는 증상이 숨을 쉴때 자기전까지 가슴이 답답함이 계속 있고왼쪽 어금니 저림, 약한 통증은 하루에 간혹 1, 20분씩 나타납니다.그리고 3번다 우연인지는 모르겠으나 자전거만 타면 심장의 박자가 이상합니다. 타다 심장이 갑자기 크고 엄청 빠르게 엇박자가 납니다.전의 질물글들은 쓸때없는 증상들이 많아 정리해서 다시 질문드립니다.</t>
+  </si>
+  <si>
+    <t>피검사 결과듣고 왔는데뭐 항체 주사 맞으라고 들었어요첨부사진에 결과보시면anti-HBS(IU) : 610anti-HBs : positive이결과는 간염이라는 수치인가요?어떤수치인지</t>
+  </si>
+  <si>
+    <t>얼마 전에 외출할 때 피임약을 깜빡해서 근처 약국에서 새로사서 원래 먹는 시간에 한 알을 먹었어요그 다음 날에는 집에 가서 원래 먹던 피임약에서 어제 안먹은 약 한 알을 건너 뛰고 다음 걸 먹었고요새로 산 피임약이랑 안 먹은 한 알은 다음달에 복용할려고 하는데 이렇게 해도 상관없죠?</t>
+  </si>
+  <si>
+    <t>안녕하세요 선생님 제목그대로 이고요, 정형외과 아닌 재활의학과 선생님께 질문 올려도 될까요? 만약 된다면 고데기코드선이 엄지발가락 위에 떨어졌는데엄지발가락이 골절이나 금이 갈수도 있나요?찾아보니 붓거나 멍이 있다는데 그런건 없었고요제가 주로 높은 하이힐을 신는데 그거때문인지 오른쪽 엄지발가락맞은 쪽이 걸을때마다 아프기도 하고안아플때도 있고 생각해보면 전에도 엄지발가락이 고데기코드떨어지기 전부터 삔것처럼 몇번 아프다만적도 있는듯 하기도해요 고데기코드선이 엄지발가락위에 떨어져서 라기보단무지외반증 인지ᆢ무지외반증인지 다리를 넓게벌리고 일하면발안쪽으로 발이 말리는 느낌도 들고ᆢ이정도까지 아니였는데 무지외반증  있으면 키가 줄어들수도있나요</t>
+  </si>
+  <si>
+    <t>원래도 비염 자주 찾아왔던 사람이에요코막힘과 콧바람이 뜨겁고 코속이 살짝 가끔씩 아픈정도로매우 심한 정도는 아니고 노란 콧물과기침 없고 줄줄흐르는 콧물도 없습니다!다만 맑고 끈적이는 가래는 자주 나옵니다 그리고 그 가래 중 하루 5번이내로 노란색이 조금 보여요 ㅠ엑스레이 찍었는데 다행히 축농증 아니구요ㅜㅜ의사선생님께서도 심한 정도는 아니라고 하셔서 심한 비염은 아니니다! 그런데 오늘 처방받은 약 좀 봐주시겠어요?ㅜㅜ전 지금 얼마전에 위염과 장염 쎄게 앓아서 현재 위장이 정말 약한 상태에요..4일전까지도 정장제와 위염약 먹었구 지금은 약 안먹고 어찌저찌 관리중인데도 정상변과 무른변이 섞인 상태인게 계속 나오는 상태에요 위장약도 하나주셨는데 하나로 될런지 ㅜㅜ여튼 위장이 약한상태인디 스테로이드성 약물 먹으면 위장에 안 좋다고 들었거든요 ㅠㅜ1.제가 받은 약 중에 메디솔론정이 스테로이드성이라고 아는데 이 약은 빼고 먹어도 될까요? 비염 치료 괜찮나요?2.그리고 다른 약들도 위장 안 좋을때 먹으면 안되는 것 있나요??3.혹은 위장 약해도 제가 위에 적은 메디솔론정을 포함해서 다 먹어도 되나요??약 종류가 워낙 많아서 다 확인을 못 해서ㅜㅜ약사쌤께는 약 받은 즉시 질문 못했고 의사선생님께 지금 현재 위장이 많이 약한 상태라고만 ㅁ말씀드리긴했습니다답변 부탁드려요! 감사합니다!!</t>
+  </si>
+  <si>
+    <t>딱 하나 있고 크기가 작은데 병일까 걱정죕니다 이게 뭔가요?</t>
+  </si>
+  <si>
+    <t>최근 전에 찍어본후 6개월만에 흉부 저선량 ct를 찍었었는데요결과에 지방간이 있는건 전에도 들었고 다른곳에 큰 이상증상은 없다고 들었는데요,난생 처음으로 폐쪽에 순수 간유리음영 이라는 처음 듣는 소견을 들었습니다.크기도 굉장히 작고 고형화된도 없어보이니 염증일수도 있으므로 경과를 살펴보자고 했습니다.그리고선 6개월이나 1년후에 추적으로 한번더 찍어보자고 말씀하셨는데요.검색해보니 암세포일 확률도 있을만하고 봤는데요,집 청소나 환기를 가끔한것빼고는흡연, 술을 등한시해서 아예 관계없이 살았던 삶인데요,의사선생님께선 너무 걱정하지 말라고 하셨는데, 그러면 걱정 안해도되는걸까요?아니면 당장 떼어내는게 좋을까요?젊을때 보이는 간유리음영이 더 위험하다고 들었는데 진짜일까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 3년째 만성적 요통에 시달리고 있습니다.현재 나이는 만 26세입니다.증상1: 허리 근육 뭉침우측 기립근을 따라 근육이 자주 뭉치곤 합니다. 아침에 심하며 땀흘리는 운동을 하면 조금 해소가 됩니다.의자에 오래 앉는게 문제인가 싶어(사무직) 스탠딩 데스크로 바꾸니 증상이 조금은 호전되었습니다.증상2: 허리 근육 압통(?)우측 기립근을 마사지볼로 마사지하면 통증이 느껴집니다. 위쪽을 마사지하면 위쪽이, 아래쪽을 하면 아래쪽이 아픕니다.좌측은 느껴지지 않습니다.증상3: 허리 근육 통증증상1의 근육 뭉침이 풀릴때 나타나는 경향이 있습니다.우측 기립근을 따라서 조금 위쪽이 아플때도 있고 아랫쪽이 아플때도 있습니다.이때 누워있으면 열감이 느껴지면서 천천히 해소가 됩니다.증상1이 심할때는 가만히 서있을 때 오른쪽 다리에 체중이 많이 실리고이 때문인지는 몰라도 그 상태로 오래 걸으면 오른쪽 무릎이 아픕니다.x-ray 검사시 오른쪽 골반이 2cm 정도 높다고했고 그 때문에 척추가 12도 정도 기울었다고 하는데 이것이 원인이 될 수 있는지?그에 따른 해결법은 무엇인지?혹은 디스크의 가능성은 있는지?(다리로 내려가는 통증은 전혀 없습니다.)가 궁금합니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>3개월전 우측으로 넘어지며손목 어깨를 조금 다졌습니다.다치기전에는 전혀 통증이 없었는데다친이후 통증이 생긴것은 맞습니다.초음파 결과 2년전에 수영하면서 다친 부위와 같은 극상근에 일부 스크레치가 있었습니다.파열은 아니고 긁힌정도라 하셨습니다.불편한것은 자고 일어날때 몸부림 때문인지아픕니다. 강도는 10중 5그외에 누운상태로 손을 머리뒤로 젖힐때  통증이 유발되고등을 긁는동작을 할때 통증과 운동제한이 있습니다.3일전 초음파후 스테로이드 주사를 맞았는데잔 통증은 사라졌지만 위의 증상은 그대로 입니다.오십견이란말도 있고회전근개 파열이란 말도 들었습니다.3개월간 물리치료 약물 치료해도위의 통증은 여전합니다.스테로이드 주사를 계속 맞아봐야될지다른치료나 정밀검사를 해봐야할지증상으로 알수있는 통증의 원인은정확히 알수없는것인가요?사진첨부합니다</t>
+  </si>
+  <si>
+    <t>역류성 식도염 증상으로 목잠김 목통증 과 무엇인가걸려있는듯한 목이물감 등이 나타날수 있나요? 상기 증상이 있어 이비인후과에서 후두 내시경후 역류성 식도염 판정을 받았습니다.갑상선이나 다른 질병은 아닌지 걱정됩니다</t>
+  </si>
+  <si>
+    <t>안녕하세요.4~5월말까지 운동을 했다가 양쪽 어깨회전근개 염증과 충돌증후군때문에 운동을 그만두고 쉬고 7월 10일정도부터 오른쪽 팔꿈치에서 통증이 생기기 시작했습니다.일단 증상은 운동을 시작하고나서부터 팔꿈치를 굽혔다가 피는과정에서 딱! 하는 소리가 자주나기 시작했어요. 운동을 쉬어도 계속 나더라구요. 6월달에는 통증이없다가 7월중순쯤 되고나니 뚝소리가나면서 점점 아파오고 팔을 굽히면 팔꿈치가 땡기는느낌이 들어요. 현재는 팔을 굽히는과정은 괜찮은데 필때가 문제입니다. 항상 소리가 나는건 아니고 오래 굽혔다가 피거나 소리 날것 같은 각도가 느껴집니다.. 그 과정에서 통증이 좀 있어요. 그래서 소리가 나서 통증이 일어날까봐 천천히 피고있어요. 전완근쪽도 점점 통증이 생겨서 굽혔다가 펼때 힘도 빠지고 막 굽혔다가 피는동작이 힘들어졌습니다. 밥먹을때도 오래 숟가락질 젓가락질 하다보면 뭔가 쭉 땡기는 느낌이 들고 밥먹기가 힘들어요.인대쪽이나 힘줄, 연골 문제일까요? 그리고 아직 증상이 심각한 단계는 아닌지 궁금합니다. 병원은 두군데 갔다왔는데 엑스레이상으로 뼈문제는 없다고 하더라구요.아 그리고 팔꿈치 부분에 뭔가 작은 혹?몽우리 같은게만져져요. 만져보면 딱딱한것 같으면서 말랑한것 같기도한 느낌이고 살짝누르면 느낌이없는데, 세게 요리조리 막 눌러보면 약간 통증이 있습니다. 위치 사진 첨부해드립니다. 이게 뭘까요? 이것도 현재 증상과 연관 되있을수 있나요?</t>
+  </si>
+  <si>
+    <t>요추전만소실있는사람은   매트리스.침대 사용하는거안좋나요?매트리스  푹식하는거  사용하니 허리 더아파요</t>
+  </si>
+  <si>
+    <t>안녕하세요. 3년째 만성적 요통에 시달리고 있습니다.현재 나이는 만 26세입니다.증상1: 허리 근육 뭉침우측 기립근을 따라 근육이 자주 뭉치곤 합니다. 아침에 심하며 땀흘리는 운동을 하면 조금 해소가 됩니다.증상2: 허리 근육 압통(?)우측 기립근을 마사지볼로 마사지하면 통증이 느껴집니다. 위쪽을 마사지하면 위쪽이, 아래쪽을 하면 아래쪽이 아픕니다.좌측은 느껴지지 않습니다.증상3: 허리 근육 통증증상1의 근육 뭉침이 풀릴때 나타나는 경향이 있습니다.우측 기립근을 따라서 조금 위쪽이 아플때도 있고 아랫쪽이 아플때도 있습니다.이때 누워있으면 열감이 느껴지면서 천천히 해소가 됩니다.증상1이 심할때는 가만히 서있을 때 오른쪽 다리에 체중이 많이 실리고이 때문인지는 몰라도 그 상태로 오래 걸으면 오른쪽 무릎이 아픕니다.x-ray 검사시 오른쪽 골반이 2cm 정도 높다고했고 그 때문에 척추가 12도 정도 기울었다고 하는데 이것이 원인이 될 수 있는지?그에 따른 해결법은 무엇인지?혹은 디스크의 가능성은 있는지?(다리로 내려가는 통증은 전혀 없습니다.)가 궁금합니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 치과 상담의 여병영입니다.치료 전 보다 낮은 느낌이라면주변을 깍는 것으로 문제가 해결되진 않을거 같습니다.그부분을 다시 레진으로 메꾸는 치료를 고려해보심이 좋을 듯 합니다* 본 답변은 참고용으로 의학적 판단이나 진료행위로 해석될 수 없습니다.ㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ안녕하세요 답글 감사합니다....그럼 다시 메꾸는건 그위에 다시 붙이나요 아니면 다시 파고 다시 메꾸나요...그리고 높이평가는  교합지로 하나요.?.그리고 해줬던 의사 아니구 다른 치과로 가도 가능한 부분인가요?</t>
+  </si>
+  <si>
+    <t>윗 어금니 충치에  레/진 수복을 했는데요...어금니 레/진이 높이가 안맞는데요  치료전보다 낮아진느낌인데요  진짜로 테두리가 깎여서 낮아진건지  아님 높아서 빗겨져서 낮은건지 ㅜㅜ 하여튼 그런데 높이 맞추려면 이걸 깎든 주변걸 깎든  하는게 싫어요 ㅠㅠ 맞춰진다늠 보장도 없구요  어쨋든  뭐가 더 깎여나가는 거잖아요......그래서 말인데 이  치아랑 맞물리는 어금니가  불행중 다행인지  애초에 크라운 씌운 이 인데요...이 크라운을 교체할때도 됐고 한데....다시 본떠서 교체하면 레/진을 안다듬고 레/진에 맞춰서 크라운이 본이 떠지면서  교합이 맞아질수 있을까요 ? 절실합니다 어떤게 현명한 선택인지</t>
+  </si>
+  <si>
+    <t>저는 2년전에 일반 피부염으로 고생하다가 만성인것 같아서 좀 큰병원에가서 조직검사를 하고 건선 진단을 받고(임상소견상 건선이라고 하셨음) 바르는 스테로이드와 광선치료로 치료를 하였습니다. 하지만 저는 광선치료3개월 면역억제제3개월 해도 큰 효과를 보지 못했고 게다가 산정특례까지 안된다고 하니 멘탈이 정말 나갔었습니다 ㅋㅋㅋ,, 그뒤로 지속적으로 치료를 하면서 제가 느끼기에는 건선이 아닌 것 같아서 근처 대학병원을 가서 진료를 받았는데 조직검사상으로는 건선이 아닌것 같다. 정확하게 하려면 조직검사를 다시 해봐야 할것 같다고 하셨고 저는 하고싶었지만 처음 조직검사때 흉터도 심하게 남았고 곧 군대를 가야해서 미뤘습니다. 결국 군대에서 광선치료를 받다가 군의관들이 교체되는 시기에 군병원 피부과를 갈수가없어서 민간병원 피부과를 갔습니다. 근데 여기서도 건선이 아닌것 같다고 하시며 먹는 스테로이드 경구약 7일치를 받았습니다. 먹고 좀 잠잠해지고 조금씩 다시올라와서 한달뒤 방문을 했는데 아직 안없어진다고 하니까 먹는약을 또 주셨습니다(똑같이).  Q1.​건선인가요?? 피부염인가요 아니면 땀띠 같은 두드러기인가요Q2. 만약 건선인데 어차피 산정특례도 안된다면 스테로이드 약을 한달마다 복용해서 일반인처럼 사는게 더 좋은 방법이 아닐까요,,?? 스테로이드 한달마다 복용해도 될까요 (바르는약은 거의 1년간 계속 발랐습니다.)*혹시몰라 조직검사 결과지도 올립니다.사진은 입대 전 1 , 입대후 휴가때 2개,  조직검사 결과지 1개 입니다,.</t>
+  </si>
+  <si>
+    <t>눈꺼풀 쪽(쌍커풀 라인 바로 위)에 쥐젖이 생겨서피부과 가서 레이저로 제거했어요그 뒤 1년이 지난 오늘 눈에 다래끼가 나서 다래끼 초기에는 온찜질이 좋다하여 온찜질을 했어요정확히는 컵에 뜨거운물을 받아 놓고 수증기로 찜질하는..? 티비에서 보니 이것도 좋다해서요ㅜㅜ한 3,4분한거 같아요다 하고 나서 보니까 쥐젖 제거한 부분이 빨갛게 변해 있더라고요ㅜㅜ이거 다시 없어지나요..가라앉을까요..?일시적으로 붉게 변한건지..지금 붉게 변한곳이 따끔따끔 거려요..</t>
+  </si>
+  <si>
+    <t>안녕하세요. 증상이 없어지지 않아 심적으로 너무 스트레스입니다.상담 부탁 드리겠습니다.제가 5주전 성접촉(구강성교)이 있었고 증상이 생겼습니다,이후로 성접촉은 없었고, 치료를 받았는데, 증상이 아직 있어서요.최초에 배뇨통, 요도, 전립선 작열감, 하복부 통증, 항문 통증등이 있었고,소변,정액 pcr검사를 하니, 가드넬라균, 염증 8개~10개가 나왔고,퀴놀론계 항생제 3주, 메트로니다졸 2주. 총 3주 복용했습니다.항생제 복용 후 1주후에소변,정액검사로 추적검사를 시행하였는데.염증 1~2개, 균 미검출 나왔구요.여전히 몇 증상들이 있습니다.소변볼때 배뇨통은 없으나,요도쪽의 간헐적으로 따끔 거리는 정도의 통증은 있는 상태 이며,요도, 소대, 포경 후 덮힌 피부쪽, 음경뿌리쪽간헐적인 따끔함과 발적 현상이 있습니다.(다른증상보다 늦게 발현됨, 성관계후 10일후)최초에는 상시적인 따끔한 현상이 있었고,무피로신 연고 바르고 상시적으로 따끔하던게 가라앉음.(5일 도포하고 차도가 더이상 없어 끊음)이후 발적 현상 때문에 피부과에서 진료보았고 피부염 진단으로 비판텐연고 처방받아 바름.(2주 도포 효과 X)비뇨기과 총 3군데(소변,정액,요속,HSV혈액검사), 피부과(육안진찰), 항정외과(육안, 항문입구쪽 내시경)총 다녀왔고,수포,궤양 없었고,헤르페스 1,2형 혈액 항체검사(3주차, 5주차) 아주 낮은수치로 음성입니다.현 증상에 대해 정리하자면,성기 피부쪽으로 발적현상, 임파선 붓기?, 간헐적 따끔한 통증요도에 간헐적인 따끔함, 찝찝함이 있습니다.이 상태에선 어떤 치료나 검사를 더 해야할까요?</t>
+  </si>
+  <si>
+    <t>턱관절염이 있어서 잘 때 스플린트를 착용하고 있습니다.가끔 한 번씩 입술 근처가 굳거나 저린 현상이 일어나는데 금방 사라집니다.뇌졸중, 안면마비라고 하기에는 눈이 안 감기거나 팔 다리가 마비되는 등 다른 증상은 전혀 없이 입술 근처만 굳습니다. 빨리 병원에 가야 할까요?</t>
+  </si>
+  <si>
+    <t>왼쪽 유방 위에 손을 올려 놓으면 봉긋한? 모양이 유지되어 있는데 오른쪽 유방은 왼쪽에 비해 모양이 잘 안 잡혀 있는 것처럼 보여요.. 손을 올려놓으면 평평한 느낌이고요.. 유방 모양은 다를 수 있다고 하는데 체형 때문인 것도 같고.. 왜 그러는지 궁금합니다.. 그리고 오른쪽 유두에 점 두 개가 생겼는데 아무 의미 없는 건가요?</t>
+  </si>
+  <si>
+    <t>며칠전에 다래끼 수술을 받았는데 그 부분에 지방이 빠진건지 절개한 부분이 꺼진건지 모르겠지만 손으로 만져봤을 때 얇고 길게 푹 꺼지는 라인이 있더라고요. 그래서 눈을 뜨면 쌍꺼풀이 생기는데 원래 속쌍이 있어서 없애고 싶은데 이것도 일종의 주름이니 아이크림을 바르거나 시간이 지나서 다시 지방이 채워지는 일이 있거나 함몰 흉이 아물면 다시 돌아올 수 있을까요? 수술없이 원 상태로 돌릴 수 있는 방법이 있다면 방법과 대략적인 기간을 알려주세요!</t>
+  </si>
+  <si>
+    <t>방금 전에 변을 봤는데 정상적인 변 색깔과 약간 진한 갈색? 검은색 변이 섞여 나왔습니다.복용중인 약은 역류성 식도염때문에 위산억제제, 소화제, 위장약을 일주일정도 복용했습니다.어제 먹은 음식은 평범한 한식 3끼에 저녁에 짜파게티 한개 그리고 자기 전에 새싹보리분말가루를 물에 타 먹은(3일째 먹는 중) 정도입니다.흑변일까요?질환을 의심하고 병원진료가 필요할까요?</t>
+  </si>
+  <si>
+    <t>2형 당뇨입니다​약복용(1500mg)만 하고있습니다최근 3개월간 혈당이 많이 밀립니다.일반한식 기준​식후 1시간120식후2시간 180식후3~4시간 185그이후부터 서서히 떨어집니다안정시(95~130)소화는 잘되나 헛트림나옵니다식사빨리하는 버릇도 있구요​단순 소화문제일까요췌장문제인가요..​​</t>
+  </si>
+  <si>
+    <t>유전적으로 탈모는 없구요 머리카락이 원래 얇긴 했지만 이정도는 아니였어요살이 급격하게 찌면서 머리카락이 빠진건지지금은 20키로 감량했구요 머리감을때 말릴때 많아 빠져요 자고일어나서 베개맡에 머리카락은 없고 감고 말릴때 많이빠쪄요 ㅠㅠ머리카락이 너무 얇아지고 빠지고 숱이 너무없어졌어요 ㅠ한 2-3년 됐는데 최근에 더 숱없는게 느껴져요 살 찌면서 혈관좁아져서 혈액순환안되서 그런걸까요?아니면 다른 문제가 있을까요?한약먹으면서 임신준비중인데피부과 약 바르는거 괜찮나요? 먹는약은 안되겟죠?</t>
+  </si>
+  <si>
+    <t>안녕하세요 21살 남성입니다. 며칠전에 흑변과 구토감으로 내원하여 약 처방받고 혈액검사에서 이상없음을 듣고 흑변도 멈추어 치킨도 먹으며 괜찮아졌다 생각했는데 설사변비가 반복됩니다. 사실 요즈음 군대때문에 스트레스도 받고 다른 곳에서도 스트레스를 꽤 많이 받습니다. 이전에 있던 병은 아닌거같은데 뭘까요ㅜㅜ 또 웃긴게 낮에만 이렇고 밤에는 언제 그랬냐는듯 아무 증상이 없습니다. 과민성 대장증후군인가요..?</t>
+  </si>
+  <si>
+    <t>강원도쪽으로 잠깐 하루 다녀왔는데(동생 전역이라ㅠ) 양팔이 간지럽더니 이렇게 붉게 부엇습니다ㅜ 혹시 햇빛 알러지인지 풀독인지 벌레알레르기인지 모르겟네요</t>
+  </si>
+  <si>
+    <t>이거 심각한건가요? 건강검진상으로 나온건 첨이라 긴장됩니다. 병원은 한달 후쯤 가서 다시해보라고 권장하긴하는데 바로가는게 나을까요??</t>
+  </si>
+  <si>
+    <t>안녕하세요여자친구랑 욕조에서 반식욕을 하다가 서로 손으로 자극을 하게 되었고 제가 물에서 사정을 했는데임신할 가능성이 있는지 여쭙고 싶습니다여자친구의 질에서 계속 물이 빠지고 있기는 한데 혹시나 가능성이 있는지 답변 부탁드리겠습니다 감사합니다</t>
+  </si>
+  <si>
+    <t>높은목침을배고 오른쪽 옆으로 목이 들려진채 누워 자고일어났더니목이좀 뻐근하고 틀어진쪽으로 목을 돌려놓는게 편하거든요 ㅠㅠ혹시이거 목뼈가 틀어진건가요/? 이정도로 목뼈가 틀어질수도 있는지...ㅠㅠ만약 목뼈가 어긋나면 어떤 증상이있는지 궁금합니다감사합니다 .. .</t>
+  </si>
+  <si>
+    <t>손등~손목 부위에 붉은 반점이 연하게 생겼습니다붓기나 가려움은 없습니다다른부위는 없고 오른속만 사진처럼 연하게 생겼습니다</t>
+  </si>
+  <si>
+    <t>몇 주째 가슴통증 쓰림, 더부룩한게 있고식욕이 없고 음식을 먹으면 자꾸 토할거같습니다.식도염 위염 약 처방받고 일주일째 복용중인데 낫질 않네요..내시경없이 증상만듣고 처방해주신거라 식도염이 맞나 싶기도하고원래 이런가요..?</t>
+  </si>
+  <si>
+    <t>안녕하세요 허리와 발등이 번갈아가며 아프고 통증으로 진통제 근이완제 소염제를 몇달간복용하고있습니다 장기복용하면 문제가 없을까요? 사정이 있어서 병원은 못가고 약만받아서 먹고있는데 간에 무리라든지 그런건 영향이 없나요?</t>
+  </si>
+  <si>
+    <t>제가 화이자 백신을 2차까지맞고 10일차 됬는데 처방받은 스테로이드랑 항히스타민 약을 먹어도될까요,,??약은 사진 첨부해서 드립니다,,니소론엠정 ,하이베포정 일주일치입니다.(피부질환때문에 약 처방 받았습니다!)</t>
+  </si>
+  <si>
+    <t>안녕하세요, 만39세 남자 사무직 직장인입니다. 금년부터 아침마다 심방이 쿵쾅거렸고 그 빈도가 점차 늘고 있습니다. 3달전 심장내과에 방문하여 심전도검사, 심장초음파검사 시 특이사항 없다고 들었고, 그래도 제 증세가 계속있으니 인데놀정을 처방해줬습니다. 그러나 먹고도 호전은 없었습니다.1주일전부터 두근거림이 더 심해져 심전도검사를 했습니다. 별문제 없다고 들었는데요, 진짜 그렇게 봐야하는지요? 부탁드리겠습니다.</t>
+  </si>
+  <si>
+    <t>변이형 협심증 환자입니다.아달라트정 헤르벤정을 복용 중인데 두통과 빈맥이 너무 심해서 아달라트를 헤르벤 2번 복용으로 바꾸고, 콩코르정을 처방하셨습니다.콩코르정이 변이형 협심증일때 처방안하는 약물이라 들었는데 같이 복용해도 될까요?</t>
+  </si>
+  <si>
+    <t>몇달전부터 식사시에 목이막혀서 막가슴치면서 급하게물을찾는경우가 많아져서 이런경우엔 어떤진료를봐어하는지 궁금합니다.처음엔 햄버거같은것을 좀 크게베어물엇을때 그랫는데 이제는.일반 밥먹을때도 한번씩 목에탁걸린느낌이들어서 급하게 물을 벌컥벌컬마시면 쑤욱 목에서 내려가는느낌이들며 괜찮아지는데 이런증상이 점점더 잦아져서 (하루1번정도) 뭔가 진료가필요한건지 궁금합니다 ㅠㅠ조금만 먹어도 목이막히는 증상이있는 병이있나요? ㅠㅠ</t>
+  </si>
+  <si>
+    <t>최근에 새끼 발톱에 검은줄?사진처럼 살짝 갈색 선이 보이는데..혹시 흑색종 인가요?</t>
+  </si>
+  <si>
+    <t>79년생이구요 원래혈압이170정도여서 혈압약으로120에80수준 유지하고 있습니다.음주후 그냥 혈압측정을 해봤는데80에40이 나오더군요.몇번을 해봐도 저 수치였습니다. 아침에 일어나서 다시 재니까 120에80이 나오긴 했습니다.음주직후에는 원래 혈압이 저렇게 낮게 나옵니까?  참고로 소주2병반 먹고2시간후 측정한 수치입니다.</t>
+  </si>
+  <si>
+    <t>외음부옆 사타구니 종기인지 물혹인지 첨엔 물렁거리다가 단단하고 엄청 뻑뻑한 느낌이 들면서 급격히 커졌어여그러다 다리도 못걸었구여길이가 종기인지물혹인지 2~3cm는 되는듯하더라구여베이는 느낌 콕콕찌르는느낌이 나게되었어여 두통도 미세하게 있었구여산부인과가서 마취하고 쨌습니다고름일거라고 하던데소독할때 너무쓰라리고 칼에 베이는듯 심하게 아프더라구여..집에와서도 깜짝깜짝베이는 느낌이 들때가있습니다. 상처가 있는듯 쓰라리구여ㅠㅠ찢어지는듯..계속 치료받으면 나아질까여?3일짼데</t>
+  </si>
+  <si>
+    <t>원래 있었는지는 잘 모르겠으나 볼록하지 않았던 것은 확실합니다. 간지러움 때문에 존재를 알게 되었습니다. 혹시 피부암 등의 가능성이 있을까요?</t>
+  </si>
+  <si>
+    <t>기름진거 매운거 진짜 못먹고 쉽게 더부룩해지고 트름도 잘하고 설사도 잘해요위, 장 기능이 더 좋아지고싶은데 ㅠ 어떻게 방법이없나요?운동하고 채소자주먹고(양배추 등) 그러면 장기능이 좋아지나요? 아니면 별차이없나요</t>
+  </si>
+  <si>
+    <t>아빠가 이번에 건강검진을 했는데 간수치가 203이 나왔어요.. 혹시 먹지말아야할 영양제 있을까요? 현재 오메가3먹고 있고 간수치 낮추려고 다슬기엑기스 드시고 계십니다 . 그리고 엄마는 공복혈당이 높게나왔는데 혹시 도움될만한 정보가있을까요?</t>
+  </si>
+  <si>
+    <t>60대 여성입니다.화이자 백신을 맞고 이틀 째 되는 날인데요,갑자기 발가락이 붓고 너무 아파서 걷지 못할 지경입니다.평소 발가락에 아무 이상도 상처도 없었습니다.백신과의 관련성을 생각할 수밖에 없는데요, 하루 이틀 더 두고 봐야 하는지, 병원을 간다면 어느 병원을 가야하는지 알고 싶어요.</t>
+  </si>
+  <si>
+    <t>관계후 비뇨기과에서 검사를통해 헤르페스,곤지름,매독이 아니라 하시고 습진성 수포라 생각한다며 약을 주셨는데 하나가 더났습니다. 위 언급처럼 아니라는 판명이 났는데 에이즈에 걸릴확률이 있나요? 혹은 병명을 알수있을까여?</t>
+  </si>
+  <si>
+    <t>3일전부터 손가락을보니 이런게 나있었어요(파일첨부해드렸어요) 누르면 아프고 손가락을 굽힐땐 아프지 않아요. 길이는 약 0.5cm정도 되는것같아요.</t>
+  </si>
+  <si>
+    <t>피부과약 정신과약 두개 다 아침저녁으로 먹어야하는데요 혹시 두개 같은 시간에 먹는다고 부작용이 있거나 그런건 아니겠죠 ? 정신과약은 쭉 먹어왔고 피부과약은 오늘 처음 처방 받았습니다</t>
+  </si>
+  <si>
+    <t>제 평균 생리주기는 28일이고, 가장 최근 생리가 6월 23일, 배란일이 7월 7일이었어요 일이 있었던 건 7월 2일인데, 가임기 전인 것 같아요.삽입은 없었고 앞전에 사정을 한번 한 후에 성기가 제 질 입구에 닿았는데, 액이 좀 흥건하게 묻을 정도로 성기가 문질러졌던 것 같아요. 아마 그때 쿠퍼액도 나왔을 것 같아서 질 입구에 액이랑 같이 묻었을 것 같은데… 찾아보니 처음 나온 쿠퍼액이 아니라 한번 사정을 한 뒤라 쿠퍼액에 정자가 많을 수도 있다고 해서 걱정이 되네요. 질 안에 조금이라도 들어가진 않았고 질 입구 표면에 문질러졌어요. 제 생리주기가 좀 주기가 길어지면 33일정도까지 간 적도 있긴한데 생리예정일이 오늘 날짜인 7월 22일로 30일째예요. 아직 생리 하기까지 좀 더 기다려봐야할까요…?  오늘 1차 백신을 접종하러 가는데, 백신 부작용으로 부정출혈 가능성이 있다고해서 하필 생리주기랑 겹치는지라 부정출혈을 생리혈로 인식하고 넘어가게 될까봐 너무 걱정되네요 양이 많다고해서… 부정출혈이 백신 접종 후 일주일 정도 뒤에 있었다는 경우를 봤는데, 백신 접종 후 바로 출혈이 발생하면 생리혈인지 백신부작용으로 인한 부정출혈일지 구별을 못할 것 같습니다.. 임신가능성이있을까요..?</t>
+  </si>
+  <si>
+    <t>안녕하세요!일주일 전쯤부터 목 앞쪽, 턱, 볼이 계속 당깁니다..!왜 이러한 현상이 발생하는 것인지 궁금합니다!임파선과 관련이 되어 있는 것인지, 평소 목이 꺾이는 불량한 자세 때문인지 기타 질병과 관련되어 있는 것인지 궁금합니다..! 그래서 이비인후과에 가야하는 것인지 신경외과 쪽인지 아님 기타 다른 쪽인지 구분이 안가네요..! 요근래 선풍기를 틀고 자서 그런 것인가 생각해보았는데 목이 아프진 않습니다.목이 아프진 않은데 침을 삼킬때 약간의 불편함이 있긴 합니다! 누워있을땐 당기는 느낌이 아주 조금 덜한데 일어나있으면 그 느낌이 강하게 듭니다! 오늘 밤중에 왼쪽볼을 대고 옆으로 잔 것 같은데 그래서인지 잠에서 깼을때 왼쪽이 더 당기는 느낌이 들었는데 지금은 또 양쪽 모두 당기는 느낌이 듭니다! 원인이 무엇인지 정말 궁금합니다!감사합니다.</t>
+  </si>
+  <si>
+    <t>제가 직접 겪은 증상이 아니라 아주 정확히는 설명 못드리겠지만.. 혀에 열이 있는 듯한 느낌이고 뭔가 감정적으로 흥분하거나 스트레스를 받거나 하면 혀가 따갑고 저린다고 하는데 혹시 어떤 질환이 예상되는지 알수있을까요?</t>
+  </si>
+  <si>
+    <t>운동하는 사람 인데요. 이온음료 정말 사랑하고 자주 마십니다하지만 이온음료 강한산성이 있고 충치 발생 한다고 들었습니다 그러면자주 마시려면 안전을 잘 지키면 되나요?이온음료 마시고 나면 바로 화장실 가서 물로 3번 입안에 행구고 30분 후 양치 하려는데 괜찮습니까?</t>
+  </si>
+  <si>
+    <t>70세 어머님께서2주전 좌하악 임플란트 식립을 했습니다..식립 후 1-2일간 약간의 고름이 보였다가 이후 현재까지는 안보입니다만약간의 통증이 있다가 없다가 반복되고 있습니다..혹시 내부에 고름이 차있는데, 겉으로는 안보일수도 있는지 궁금합니다..</t>
+  </si>
+  <si>
+    <t>제가 화이자 백신을 2차까지맞고 10일차 됬는데 처방받은 스테로이드랑 항히스타민 약을 먹어도될까요,,??약은 사진 첨부해서 드립니다,,니소론엠정 ,하이베포정 일주일치입니다.</t>
+  </si>
+  <si>
+    <t>화이자 2차 맞기 바로 전에 신우신염이 와서 치료했고 CRP, 소변검사 정상 수치, 컨디션 회복 후 7월 20일날 화이자 2차 접종했습니다. 2차 접종 후 컨디션이 떨어져서 오늘(접종 3일차) 혹시나 해서 혈액검사, 소변검사 했는데 CRP 수치(정상 0.3)가 0.6으로 올랐다고 합니다.(백혈구? 적혈구? 수 / 소변검사는 정상이라고 합니다) 백신 접종 후 CRP 수치가 오르기도 하나요? 혹시나 신우신염이 재발한 건 아닐까 무섭습니다ㅠ 벌써 세번째 재발햇던지라..또한 균배양검사에서 엔테로코커스 페칼리스(Enterococcus faecalis)균이 나왔었는데 마더스세픽심캡슐(3세대 세팔로스포린계) 항생제로 이 균을 없앨 수 있나요? 신장내과에서는 효과가 있다하고.. 비뇨기과에서는 효과가 없다하니.. 마지막 일반 소변검사에서 균이 검출되지 않았으면 신경안써도 될까요?</t>
+  </si>
+  <si>
+    <t>발가락 깁스하고왔는데 너무 불편해하는데 이렇게 놔두고 가만히 있어도 되나요?</t>
+  </si>
+  <si>
+    <t>밑에 첨부한 것처럼 건강검진 결과서를 받았는데 많이 심각할걸까요?병원 간호사 선생님 설명으로는 5mm 이상이라 검진을 받아야한다고 하시는데,,, 혹시 암이나 다른 병일 가능성이 높은것일까요?</t>
+  </si>
+  <si>
+    <t>역류성 식도염이나 역류성 인후염의 경우 침 삼키는 것도 힘들 수 있나요? 아칼라지아의 경우만 그런가요?</t>
+  </si>
+  <si>
+    <t>원래 몸을 자주 들여다보는 편인데 어느 순간부터 가슴 사이에 명치 위쪽 손가락 두마디 부근에 살이 볼록하게 돌출되어있어요. 예전 어디서 스트레스 많이 받으면 가슴 사이에 혈?이 튀어나온다 이런 거 듣기는 했는데 그런 건 걍 페북 이런데서 본 거고.... 왜 이럴까요? 부은 것처럼 툭 튀어나와있어요. 1년 반사이동안 스트레스 정말 많이 받긴 했거든요.. 암인가요? 1년 전 위내시경 했을 땐 아무이상 없었어요. 너무 크게 튀어나와 있어 보기 싫으네요..</t>
+  </si>
+  <si>
+    <t>관절수술후 다이어트로 인해 식사량이 적어서유산균,해독주스,콩나물,오이,당근을 수시로 먹는데도화장실을 잘 못갑니다기존에 내과서 마그밀 처방받아먹었는데 의사분이 이번엔 처방안해주시드라구요마그밀은 장기복용하면 문제가 생기나요?기존에아침,저녁2개씩 먹었거든요지금 유산균,운동,섬유질,해독주스 먹어도 화장실을 못가 힘듭니다</t>
+  </si>
+  <si>
+    <t>설사으로 3달째  체중감소많이 빠졌습니다.과민성 약 먹고있는데  효과는없는거같고요무슨검사 하는게좋을까요?피검사 하는것도 좋을까요지방간있는데 최근에 약 많이 먹어거든요피로감  많이 느껴요  대장 내시경  검사 먼저 보는게좋을까요?</t>
+  </si>
+  <si>
+    <t>놀이텐트에 걸려 넘어졌는데 세번째 발가락을 못움직이고 발가락이 약간 휜거 같은데 골절인가요? 가만히 있으면 안아프다고하고 움직이면 아프다는데 지금 저녁이라 다음날 병원가도 되나요?</t>
+  </si>
+  <si>
+    <t>관계후 하루뒤에 생리를 했고요 , 혹시 몰라서 2주 정도 지난뒤에 소변 테스트기로 검사 했는데 한줄(비임신) 나왔어요 검사하고 2 ~3주 뒤에 또 생리를 했습니다 . 그리고 또 오늘 관계한지 2달 ? 정도 지났는데 테스트기 아침 소변으로 비임신 확인했어요 이정도면 안심 해도 되나요 ? , 혹시 관계후 2번째 생리가 부정출혈(착상혈) 일수도 있나요 ?</t>
+  </si>
+  <si>
+    <t>오른쪽갈비뼈끝쪽이 부딛쳐서 골절이조금생겼는데요.병원에서 한달간조심하라는데?그냥. 가만히 쉬는게낫나요?산책정도는하야된다는얘기도있던데요?글고테이핑도 효과있나요?</t>
+  </si>
+  <si>
+    <t>성관계를 조금 격하게 해서 그런지 아픈 느낌이 있었는데 하고 나서 보니 출혈이 있더라구요 뚝뚝 떨어져있었어요 맑은 피였구요. 격하게 해서 나온 부정 출혈인가요? 관계후엔 출혈이 없습니다.  생리 예정일은 다음주에요. 지금은 질 입구 통증이 있어요ㅠ 저번주에 관계를 했었는데 다 질외 사정했구요 착상혈은 아니겠죠?</t>
+  </si>
+  <si>
+    <t>눈에 약간의 이물감이 느껴져서 거울을 봤더니 사진과 같이 충혈이 되어있고 가운데에 작은 이물질이 보입니다..인공눈물도 넣어보고 면봉으로 살짝 떼어보려고 해도 떼어지지가 않습니다.안과에 가봐야 하는 건지.. 시간이 지나면 자연히 흡수가 되는지 문의드립니다.</t>
+  </si>
+  <si>
+    <t>초기라고 걱정할 필요가 없다 했는데도 약을  15일정도 복용 후 조금은 나아져 가고 있는데요. 이리 오래 약을 먹어도 완치어려운 병인지요?감사합니다.</t>
+  </si>
+  <si>
+    <t>주로 팔, 어깨부위에 호발해서 분포되어있습니다.눈으로 보이는 것만 1-20개정도됩니다. 크기는 큰건 4-5미리정도 작은건 2미리 정도입니다.가려움, 통증,이질감등은 일절없고요, 딱히 불편은 없는증상입니다.색깔은 살색에 질감은 그냥 살이 볼록 올라온듯한 감촉입니다.다만 이게 전에 손등에도 났고, 어깨도나고 아주 미관이안좋아보여서 미치겠습니다.생기는 속도도 빠른편입니다. 3일전에는 없던게 생겨있기도 합니다.여드름인가싶어서 살리실산도 발라봤는데 그주변부 색깔만 검어지고 볼록튀어나온건 안사라지더라고요.주삿바늘로 찔러봤는데 안에 고름이 전혀없고 그냥 살이나 지방들인거같더라고요.피지낭종은 아닌거같습니다.심지어 이러면 안되는것은 알지만 너무 걱정되서 알코올에 소독깔끔히한 새 칼날같은거로 살짝 째도봤는데요, 그냥 안에 지방만 부풀어오른 느낌입니다. 후처리로 빨간약에 후시딘발라서 덧나지않고 아물었습니다.일단 양성연부조직종양인거같은데혈관종이라기엔 안빨갛고, 쥐젖이라기엔 제가 나이가 젊고 외형도 흔한 쥐젖과는 상이하고요.지방종이라기엔 제 피하지방층 위에있어서 위치도 이상합니다.그럼 양성섬유종중에서도 무서운 편인 신경섬유종증일까요?커피색 반점은 없고 어렸을때도 이런증상은 없었습니다.뇌mri에도 종양같은 다른 이상은없었고요.아니면 그냥 단순한 피부 섬유종이나 연성섬유종 인가요?일단 꽤 살찐상태긴해도 젊고, 당뇨도 없는사람인데 이런게있어서 좀 당황스럽습니다.BMI30이상의 고도비만인데 살쪄서 살이 트거나 하는 증상으로 생긴걸가요? 그냥 살빼면 더 안나려나요?그냥 신경끄고살아도되는걸까요?동네 피부과를 갔는데 시원한 답이안나와서 답답하네요..</t>
+  </si>
+  <si>
+    <t>관계 할때 처음에는 콘돔 사용하였고,두번째 할때 10분가량 콘돔없이 관계 후에 콘돔착용 하였습니다. 생리주기는 매달 25-28일 사이로 규칙적입니다. 임신 가능성이 높을까요? 어제 저녁 10시경에 관계를 했는데 오늘 오후에 산부인과를 가서 응급피임약을 처방받는것이 좋을까요?? 감사합니다</t>
+  </si>
+  <si>
+    <t>제 생리주기는 1달로 규칙적입니다. 그리고 네이버 배란일 계산기 기준으로 17일까지 배란일이고, 관계는 22일이므로 배란일 계산기 기준 5일이 지난 후 입니다. 생리 예정일은 매달28일 기준 앞뒤 1-3일입니다. 1차 콘돔 사정 후 2차에 10분정도 콘돔없이 관계하였지만 사정은 하지 않았습니다.(질외 사정이 아니라 안함, 사정감은 여러번들어 멈췄다가 다시했음) 이런 상황에서 임신이 되었을 확률이 높은건지 여쭤보고 싶습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>6개월 전부터 왼쪽발 뒤꿈치 통증이 약간 있었는데..그냥 지나쳤거든요..근데, 이제 점점 심해지는 것 같아서요..뒤꿈치에서 안쪽 뒤꿈치만 아픕니다…시큰 거리는 거구요… 족저근막염이면 아침에 크게 아프댔는데, 아침에 딱히 더 아프고 하는건 없습니다.그냥 하루 종일 비슷합니다..누워있어서 하중이 가해지지 않는 상태에도 조금 욱신 욱신 조금 통증이 있습니다…허리 디스크 때문에 그런가요?? 아니면 족저 근막염인가요??치료는 어떻게 하나요?</t>
+  </si>
+  <si>
+    <t>의사선생님들은 대장내시경만 봤을때 대략 대장암인지 아닌지 아실 수가 있나요?모양이 별로면 바로 아는 경우도 있다고 해서요!</t>
+  </si>
+  <si>
+    <t>25살 흡연6년차입니다오늘 아침에 일어나서 기침하고 목을 가다듬었는데 가래가 툭 하고 나왔어요전체적인 색깔은 투명한가레에 연한 누런갈색 니코틴색깔이 물들은거 같았어요툭하고 나오는 가래는 한두달에 한번씩 뱉구요억지로 뱉어도 이런 이물질이 나올때도 있구요그냥 완전 투명하게 나올때도 있어요저 무슨병에 걸린건가요? 담배연기 땜에 그런가요?이런 가래 뱉은지 1년 넘은거 같은데 아까 엑스레이 찍었는데 문제없다했는데..</t>
+  </si>
+  <si>
+    <t>바리다제정타세놀8시간이알서방정임파선염때문에 처방받았었고, 이약먹고 임파선염이 가라앉았는데 최근 다시 재발해서요지금 병원갈 상황이 아니라서 약국에서 소염제 사서 복용하려고 하는데비슷한 약이 있을까요...그리고 타세놀은 해열제던데, 바리다제정 성분만 먹어도 문제 없을까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요 오늘 9시 30분쯤 위내시경에서 위미란과, 출혈흔적 약간의 급성위염 이정도 소견받고 의사선생님께서 큰 이상은 없다 하셨습니다. 그리고 내시경 후 식사에 대해 별 말씀 안하시길래 한시간 반쯤 후에 진짜 너무 배고파서 약간 매운 찌개와 일반식을 하였는데 괜찮겠죠??</t>
+  </si>
+  <si>
+    <t>오늘 아침 씻으면서 성기 표피를 젖혔는데 귀두 아래 가로로 길게 상처가 있었습니다. 통증이 없어서 상처가 있는지도 몰랐습니다. 하지만 피가 조금 나는 것 같았습니다. 물에 닿았을때 약간의 욱신거림과 따가움이 있었지만 그렇게 아프진 않았습니다. 이럴 경우엔 집에서 약을 바르면서 스스로 치료 할 수 있나요? 성인은 아니고 학생입니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 25세 성인남성입니다.어릴때부터 요도 옆에 새끼 손톱만한 물혹이 있었는데보기에 좋지가 않아 몇년 전에 비뇨기과에 방문한 적이 있었어요. 그때 미관상 보기 좋지 않은거지 다른 문제가 없으니 놔두라고 해서 몇년째 방치중인데요. 아무래도 제거하고 싶어져서 질문을 드립니다.제가 아픈걸 싫어해서 수면마취로 진행하면 좋겠는데, 수술로 제거할때 수면마취 진행을 하려면 대학병원에 가야 하나요?집 근처 비뇨기과에서 바로 수술이 가능한 그런 간단한 수술인지 궁금합니다.</t>
+  </si>
+  <si>
+    <t>75세 췌장2기로 후미 수술하고 항암을 끝냈어요..식사를 정상인처럼 고단백 포함 정말로 잘드시네요.그런데 식사를 잘하고계시는데  돌아서면  배가 고프다하여  아보카도.바나바 토마토 견과류를 드심니다.소화와 변비 없으면 계속 드시게해도 되는지요?인슐린 맞고 계셔 요 저혈당이 아닌데요.감사합니다</t>
+  </si>
+  <si>
+    <t>습윤밴드 계속 붙이는데 씻을 때 마다 떨어져나가서 하루에 한벙꼴로 갈아요 ㅠㅠ이럼 안된다던데 떨어져서 너무 짱나요 작은 상처인데 이정도는 그냥 냅둬도 될까요? 흉질까봐 그게 걱정입니다 흑흑 ㅠ</t>
+  </si>
+  <si>
+    <t>낮에 질염땜에 (밑이 따가운 느낌이 있어서)소독갔었구요. 성병검사랑 질염균 검사도 한다고 이제 결과만 기다리고 있는데 낮에 질정 넣은게 새벽쯤 되니 화장실 간다고 가는데넣어뒀던 약이랑 약간이 피도 섞여 나와요. 내일도 병원에 가야하나요? 병원에선 결과 결과에 맞춰서 치료한다던데불편하면 그 안에 소독 오라고 하셨고요저 병원 내일 가봐야하나요? 약간의 피랑 약이랑 섞여 나오는데요</t>
+  </si>
+  <si>
+    <t>그럼 알로에전입 성분이 든거는 먹으면 안되나요?제품들보니 식약청에서 인정받고 검증된 알로에성분 이라는데선생님 얘기들으니 다이어트약은 먹으면 안되는거군요</t>
+  </si>
+  <si>
+    <t>내일 저희 아버지가 백신을 접종하시는데 혹시나 접종 후 열이나면 가족들한테 감기처럼 열이 옮기나요?</t>
+  </si>
+  <si>
+    <t>작년 2020년 9월에 오른쪽 복숭뼈 바로 밑에 수시로 찌릿 찌릿 거리는 통증이 왔었어요. 이때는 하루에 발생 빈도도 많았고 통증 강도도 심했고 매일 증상이 나타났거든요 근전도 검사해서 이상없고 CT찍어도 이상없고(당시 CT를 허리에 찍었나 발목에 찍었나 기억이 안나요) 그 다음 mri를 발목에 찍었는데 다른 곧은 다 회색깔로 나타나는데 특정부위만 엄청 하얗게 나타나있더라구요.염증이 있다고 하시고 물리치료와 약물치료를 한달가까이 하니 발생빈도도 줄고, 통증도 점점 줄고 한달 후엔 완전히 사라지더군요. 일년 후 8월 현재 또 같은 오른쪽 발목 복숭뼈 바로 밑에 작년과 같이 수시로 찌릿거리는 통증이 나타나고, 빈도와 통증강도는 작년보다 심하지는 않아요. 기존 병원에 가서 진료를 받으니 염증이 생긴 것 같다고 동일하게 치료 해보지고 하는데, 왜 자꾸 염증이 생기는 걸까요 ㅜㅜ 속상하네요. 관리를 어떻게 하면 될까요?그리고 작년 mri 찍은 것 여쭤보니 건초염? 근초염?에 염증이라고 하시는데 발목에 건초입니까? 근초입니까 마스크를 끼고 있는 상태라 잘 안들리네요 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>안녕하세요, 저는 목디스크를 가지고 있는 직장인입니다.최근에 허벅지 뒤쪽이랑 무릎쪽이 불규칙적으로 땡겼다가 괜찮아졌다가를 계속 반복합니다.지속적으로 강하게 강하게 아프다기보다는 불규칙적으로 생겼다가 없어졌다가를 반복하는데병원을 가봐야하는 부분인지 판단이 어렵습니다.한번 통증이 있으면 10분이상 지속이 되지는 않습니다. 단지, 반복이 됩니다.</t>
+  </si>
+  <si>
+    <t>치질 및 치열 발생으로 프라목신 염산염이 들어간 연고 및 좌약을 사용하였습니다 3일 사용하였는데 바를 당시 콩알보다 작았던 치질이 3일 연고와 좌제를 사용한 후 손가락 한마디 이상으로 커졌습니다. 멀쩡했던 겉 항문도 살도 땡땡하게 부어서 엉덩이 속이 당겨지는 느낌이 날 정도 입니다.  그리고 안쪽에 있던 치질이 손가락 한마디 이상으로 커지면서 항문 바깥으로 나와서 통증이 상당히 있습니다. 현재 외부로 나온 치질은 손 댈수 없을만큼 아팠다가, 부기가 조금은 빠진  상태이며, 하지만 아직도 손가락 한마디 정도의 크기 정도 됩니다. 예전에도 한번 프라목신 제제를 사용하고 심하게 부은 경험이 있습니다. 그때는 하루 정도 사용하였고, 단순히 치질이 심해서 그럴것이라 생각했었습니다. 찾아보니, 프라목신이 맞지 않으면 부작용에 부종이 있던데... 이런 증상이 프라목신 성분에 의한 부작용인지, 아니면, 제가 알지 못했던 치핵이 갑자기 커진건지 궁금합니다. 푸라목신 부작용이 줄어들면, 이거 원래대로 회복이 가능할까요?아니면,  치질 수술을 해야 할까요? 정말 난감합니다.</t>
+  </si>
+  <si>
+    <t>제 취미가 ott사이트 넷플릭스나 왓챠같은걸로 드라마 시청하기인데요. 요즘은 2005년정도 중국에서 방영했던 옛날 드라마를 보고있습니다. 근데 이게 2005년도 해외드라마다보니 화질이 안좋은 편인데요. 정확히는 잘 모르겠지만 화질 360p정도 될 것같은 느낌? 입니다. 어쨋든 드라마 캡쳐 사진 첨부한대로 사람얼굴 이목구비랑 자막정도는 보이는 정도인데 화질 안좋은 영상을 본다고 눈에 영향을 끼치고 그러는건 없죠? 혹시 옛날 영상이라 영상에서 뿜어져 나오는 빛이 안좋아서 망막에 영향을 미치거나 시력이 나빠진다거나 그러는건 아니죠?? 맘 놓고 봐도 될까요?? 제가 망막질환이 있어서 워낙 이것저것 걱정이 많아서요. 화질 안좋은 거 본다고 눈에 악영향 끼친다는 딱히 의학적으로 증명된 사실이 없는거죠??너무 쓸데 없는 걱정인가요?</t>
+  </si>
+  <si>
+    <t>안녕하세요 이전에도 치질/치핵/치열등에 증상으로 여러번 질문을했었는데 오늘 항문을 확인하던중 우연히 종기같은게 만져져 불안감에 질문드립니다우선 저는 변비/설사를 거의 달고사는편이고 현재도 변을 4일정도 보지않고있습니다 근데 지금은 밥을 정말 안먹다싶이 적게먹고있어 예상으론 밥을 많이먹으면 바로 나올것같긴한 상태입니다 저저번주까지 굵고 단단한변을보면 변기안이 시뻘겋게 피로 흥건했는데 5일전 변을 봤을때는 약간 설사변을 보긴했으나 항문에 통증이나 혈흔은 전혀 나오지 않았었습니다그러다 오늘 우연히 항문근처를 만지다 좁쌀보다 작은 종기? 같은게 만져져서 혹시 이게 치루는 아닐까 싶어서 걱정되어 질문드립니다 첨부한 사진에 빨간원에 있는 살짝 하얀게 제가말한 종기이며 크기는 좁쌀보다도 매우매우 작은크기이긴한데 오늘오전까지만해도 전혀 안만져졌는데 갑자기 만져지니 당혹스럽네요 통증같은건 전혀 없습니다그리고 평소에 파란 동그라미친 췌피? 같은게 있는데 평소에는 저런식으로 살점으로만 만져지는데 오래앉아있거나 굵고 딱딱한변을 보면 저게 부풀어 오르듯 빵빵해지던데 저건 뭔지 / 수술이 필요한 정도인지 궁금합니다질문1. 사진상 빨간원 친곳에 보이는 좁쌀보다도 작은 하얀종기? 같은게 오늘 오전까지만해도 안만져지다 갑자기 만져지는데 치루증상인가요? 통증같은건 전혀없습니다2. 사진상 파란원친곳에 보이는 췌피? 같은게 평소에는 저런식으로 그냥 살점으로 만져지는데 굵고 단단한변을보거나 변기에 조금 오래앉아있으면 항문과 같이 저 췌피같은것도 빵빵하게 붓던데 뭔지 궁금합니다3. 제 평소 항문상태를 볼때 어떤 병이있고 수술이 필요한지도 궁금합니다</t>
+  </si>
+  <si>
+    <t>선생님 마지막으로 여쭤볼게있는데요 ㅠ왼쪽 사진이 수술 전 사진이고요오른쪽사진이 수술 후 사진인데요수술한 이유가 빨간색 동그라미처럼 치루때문에 한건데요 결과적으로 수술은 잘됬다고하셨는데요제가 궁극적으로 트라우마때문인지는 모르겠는데요 오른쪽 사진에서의 파랑색 부분있잖아요?항문 농양으로 재발한건가요? ㅠㅠ 아프거나 그런건 없는데요근데 궁극적으로 여쭤보고싶은게왼쪽 사진보면 외치핵? 치핵같은 콩알만한게 한 3개정도있잖아요? 치루수술당시 레이저로 저 콩알만한? 치핵 지져놨다고는 하셨는데요제가 우려되는건저 파랑색 동그라미속에 저거 농양인건가요? 치핵인건가요?ㅠㅠ의사샘마다 의견도 다 제각각이고 하..치핵이라면 심하지 않으면 굳이 수술할필요없다고 오히려 괄약근약해지고 그냥 보존적 치료 하라는 분도 계시는데요저는 이해가 안되는게 .. 저거 치핵이라면 나중에 3도4도 이렇게 커지지 않나요? 언젠가는?혈전성외치핵이라는 분도 계시는데 피를 빼내야하는거 아닌가요?아프지않으면 그냥 그대로 둬도 되는건가요?도대체 뭐예요?/ 저 파랑색동그라미 친부분이이요 치핵이예요? 항문농양 재발 한거예요? 외치핵인지ㅠㅠ 대략적인 판단 해주실수 없으시나요?만약에 치핵이라면 굳이 제거 수술할 필요가 없는건가요?? 어떤분은 괄약근 약해져서 위험하다고 그냥 보존적치료하고 증상 악화되면 그때? 하라는데전 좀 이해가 안되는게. 면역력 약해지거나 피곤해지거나 그러면 언젠간 저게 3도4도처럼 커지지않나요? 한번 생긴게 다시 안없어지지 않지 않나요? 근복적으로 치료를 해야되는건 아닌가싶은데.. 대부분은 보존적치료로 해결할수있다는데.. 누구말씀이맞는건지 모르겠어서..글을 남깁니다.. 아프거나 그런건 없습니다 ㅠㅠ 저 파랑색 부분이 너무 신경쓰이네요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>통증이 있는것은 아닌데 우연히 손을 보다가 양손다 빨간색 부위가 두툼하게 튀어나와있는데 정산인가요?세게 누르면아프긴 합니다</t>
+  </si>
+  <si>
+    <t>머시론을 복용중입니다. 이번이 두 번째 달인데 새로 복용한지 3일째 되는날인데 질내사정을 하였는데 임신 가능성이 많이 높을까요? 사후 피임약을 복용해야할지 조언을 부탁드립니다.피임약은 복용법만 잘 지키면 복용 첫 날부터 피임 효과가 있다고 들었는데 우리가 익히 들어 알고있는 90대의 피임률이 3일째에도 나올 수 있는지도 궁금합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요! 28 남성입니다. 제가 몇년전에 눈모양이 변했습니다. 눈이 처지고 늘어지고 눈두덩이가 더 두툼해졌습니다. 눈꺼풀에 옅게 선도 생겼고요 삼백안도 약간 생긴거 같아요. 몽고주름도 심해지고요. 눈이 퀭하고 흐릿해진거 같아요 변한 후 눈이 싫어서 너무 스트레스를 받습니다. 대학병원 안과 두곳을 가봤지만 선생님들께서는 눈에는 이상없다 하십니다. 원인도 몰라 너무 답답하고 떨어진 자존감 때문에 눈성형을 생각중인데 주어진 제 조건에서 최상의 결과를 얻을수 있는 수술법은 무었일까요? 한번으로 끝내고 싶은데 절개 쌍커풀도 제 눈에 괜찮을까요? 눈이 잘붓는데 안성형을 할수있나요? 제 눈사진은 첨부했습니다~</t>
+  </si>
+  <si>
+    <t>머리 백회 통증도심하고 눌리는 느낌인데 여긴못고치나요?xt찍어도 볼수도없다하구요</t>
+  </si>
+  <si>
+    <t>성모엄지척정형외과의원</t>
+  </si>
+  <si>
+    <t>오편한 한의원</t>
+  </si>
+  <si>
+    <t>닥터홍가정의학과의원</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>서울에스재활의학과의원</t>
+  </si>
+  <si>
+    <t>서울센트럴이비인후과의원</t>
+  </si>
+  <si>
+    <t>삼성좋은날비뇨기과의원</t>
+  </si>
+  <si>
+    <t>고운숨결내과의원</t>
+  </si>
+  <si>
+    <t>강남루덴플러스치과의원</t>
+  </si>
+  <si>
+    <t>클린업피부과의원</t>
+  </si>
+  <si>
+    <t>서창밝은안과의원</t>
+  </si>
+  <si>
+    <t>이과수비뇨기과의원</t>
+  </si>
+  <si>
+    <t>아나파신경과의원</t>
+  </si>
+  <si>
+    <t>신세계외과의원</t>
+  </si>
+  <si>
+    <t>웅선의원</t>
+  </si>
+  <si>
+    <t>드림병원</t>
+  </si>
+  <si>
+    <t>연세에스비뇨의학과의원</t>
+  </si>
+  <si>
+    <t>마디로한의원(뚝섬)</t>
+  </si>
+  <si>
+    <t>제일경희한의원</t>
+  </si>
+  <si>
+    <t>의료법인 인당의료재단 부민병원</t>
   </si>
   <si>
     <t>진피부과의원</t>
   </si>
   <si>
-    <t>국립정신건강센터</t>
-  </si>
-  <si>
-    <t>클린업피부과의원</t>
-  </si>
-  <si>
-    <t>잇츠비의원</t>
+    <t>동방서시의원</t>
   </si>
   <si>
     <t>대구코넬비뇨기과의원</t>
   </si>
   <si>
-    <t>안녕하세요. 하이닥 피부과 상담의 김우진입니다. 푸라칸정은 손발톱진균증, 무좀(족부백선)의 피부진균 감염증에 효과가 있는 약 입니다.
-피 검사를 하신 이유는 피검사로 간 수치를 확인함으로 무좀약 복 ...</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥 피부과 상담의 김우진입니다. 새끼 발톱에 선이 보이기 시작하셔서 걱정이되시군요. 먼저 사진으로만 봤을 때에는 나타나는 육안관찰이 어려워
-정확한 병명 여부를 확인할 수 없기 때문에 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">안녕하세요. 하이닥 흉부외과 상담의 김대연입니다.
-사진의 위치를 정확히 알지 못해 답변드리가 어렵습니다. 정확하게 정면과 측면 사진을 올려 주셔야지 판단이 가능할 것 같습니다. </t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥 피부과 상담의 남상호입니다. 문의하신 내용과 올려 주신 사진만 보아서는 접촉피부염이 가장 의심됩니다. 물론 햇빛에 의한 광피부염도 가능하고요. 접촉피부염은 자기 피부에 맞지 않거 ...</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥 피부과 상담의 남상호입니다. 문의하신 내용으로 보아 동전 모양 피부염이 의심됩니다. 동전 모양 피부염은 대표적인 아급성 내지는 만성 피부염의 일종으로 병변의 형태가 동전 모양으로 ...</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥 이비인후과 상담의 장형준입니다. 인후두역류증,(역류성 인후염, 역류성 식도염)에 대해 질문해 주셨군요.
-목의 이물감으로 많이 불편하신가 봅니다. 말씀하신대로 인후두 역류증의 증상 ...</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥 비뇨의학과 상담의 이영진입니다. 헤르페스,곤지름,매독이 아니라 하시고 습진성 수포라는 진단을 받으셨군요. 에이즈의 가능성은 거의 없습니다. 피부과에서 정확한 진단을 한번 받도록  ...</t>
+    <t>에스산부인과의원</t>
+  </si>
+  <si>
+    <t>손태용내과의원</t>
+  </si>
+  <si>
+    <t>세브란스병원</t>
+  </si>
+  <si>
+    <t>향문외과의원</t>
+  </si>
+  <si>
+    <t>진산부인과의원</t>
+  </si>
+  <si>
+    <t>HiDoc</t>
+  </si>
+  <si>
+    <t>신세계안과의원</t>
+  </si>
+  <si>
+    <t>다솜이비인후과</t>
+  </si>
+  <si>
+    <t>쉬즈메디병원</t>
+  </si>
+  <si>
+    <t>송파항외과의원</t>
+  </si>
+  <si>
+    <t>사랑가득안과의원</t>
+  </si>
+  <si>
+    <t>엘에스정형외과의원</t>
+  </si>
+  <si>
+    <t>웰성형외과의원</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 정형외과 상담의 허성우입니다.통증이 심해서 많이 불편하시겠습니다만우선  처방 받으신 약을 드시구요천장관절염 자체가 없어지진 않습니다. 다만 불편감 자체가 변동할 뿐입니다.간혹 강직성 척추염과 연관관계가 있을 수도 있으니 이와 관련된 검사도 고려해 보시구요불편감이 허리에서 오는 신경 통증일 수도 있으니 구분이 필요하긴 합니다.쾌유 바라겠습니다.감사합니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 정형외과 상담의 허성우입니다.위치가 달라 보입니다.불편하시겠지만 통증을 줄일 수 있는 약을 우선 드시고정형외과 방문하여 진찰만 받으셔도 명확히 알수 있겠습니다.감사합니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의학박사/전문의 오명진입니다.천장관절염때문에 걱정이 많으실 것 같습니다통증부위가 꼭 천장관절염만으로 유발되지 않고허벅지 안쪽의 내전근문제가 복합적으로 생겼을때 나타나는 경우가 많습니다보통 천장관절염을 동반한 상기증상에는 한의원에서 약침이나 봉침을 써서 염증증상을 회복시켜주고추나요법으로 교정하여 치료할 수 있습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.심장의  박자가 이상함을 느끼셨다고 하면 임상적으로 부정맥이 의심됩니다. 이것에 대하여 증상이 있을때 심전도 검사를 해보시거나 심장내과 진료가 필요하다고 생각됩니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.b형간염 항체는 생성되어서  접종은 필요없어보이구요. 아마도 a형 간염 예방주사 접종을 권유 받으신것이 아닌가 생각됩니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 상담약사 김민한입니다.같은 조성이면 괜찮습니다.아래 세로줄에 있는 약들을 같은성분입니다.같은성분에 함량이 조금 차이나는경우도 괜찮습니다.상대적으로 에스트로겐 함량이 낮은약으로 드셨을때는 부정출혈이 있을 수있습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 재활의학과 상담의 김재호입니다.고데기코드선이 엄지발가락 위에 떨어졌는데엄지발가락이 골절이나 금이 갈수도 있나요?찾아보니 붓거나 멍이 있다는데 그런건 없었고요=&gt; 뼈가 약한 여성분의 경우 가벼운 물체가 떨어져도 발가락 금이 가는 경우는 있습니다.다만 코드선? 정도라고 하고통증 없고, 붓기 멍이 없다면 가능성 떨어집니다.제가 주로 높은 하이힐을 신는데 그거때문인지오른쪽 엄지발가락맞은 쪽이 걸을때마다 아프기도 하고안아플때도 있고 생각해보면 전에도 엄지발가락이 고데기코드떨어지기 전부터 삔것처럼 몇번 아프다만적도 있는듯 하기도해요 고데기코드선이 엄지발가락위에 떨어져서 라기보단무지외반증 인지ᆢ무지외반증인지 다리를 넓게벌리고 일하면발안쪽으로 발이 말리는 느낌도 들고ᆢ=&gt; 단순 무지외반증으로 통증이 발생하진 않고요.하이힐, 보행자세나 부정렬 등으로 무지외반이 생기거나 심해질 수는 있습니다.이정도까지 아니였는데 무지외반증 있으면 키가 줄어들수도있나요=&gt; 무지외반으로 키가 줄지는 않습니다.더 정확한 것은 신체검사 기능검사 단순촬영 등을 직접 보아야하니근처 재활의학과 진료보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 이비인후과 상담의 윤병기입니다.우선은 약은 받은대로 드시는 것이 좋습니다 증상이 얼마나 심한지, 신체검사 상은 어떠했는지는 알 수 없기에 이 이상의 답변은 드리기가 힘들고, 약 복용후 위장증상의 이상 유무는 사람 마다 달라서 꼭, 그 약을 먹으면 '안좋다'라는게 없습니다. 약의 용량이 지금 표기되지 않아서 더더욱 어렵네요.증상을 보고 필요하면 드시는게 약이기에 자세한건 처방해 주신 선생님과 상담을 한번더 가지시는게 좋습니다. 약국에서 약 받으시면서 한번 더 약에대한 설명을 들으셨을텐데요, 필요하시다면 약국에 전화하셔서 문의 받으셔도 되겠습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 비뇨의학과 상담의 이주환입니다.국소  염증으로 생긴 피지낭종으로 보여집니다.정확한  진단을  위해   근처 비뇨기과에  내원하셔서  전확한   진단과치료를 받아 보시기 바랍니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 호흡기내과 상담의 진성림입니다. 현재 보이고 있는 간유리 읍영은 그 크기가 매우 작기때문에 외과적으로 절제 하기 보다는 6개월 후 추적 LDCT촬영을 해서 간유리 음영의 변화가 있는지 확인하는것이 일반적인 원칙입니다.  지금 상태에서는 위치나 크기로 보아 조직검사 할 수 있는 상태도 아니기 때문에6개월 후 추적 LDCT촬영이 최선의 선택으로 판단됩니다.바로 절제하는 것과 경과 관찰을 선택하는 것 중에 득과 실을 따져 본다면 바로 절제하는 것을 선택하는 것이실이 더 많은 선택이라고 판단합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 재활의학과 상담의 김재호입니다.x-ray 검사시 오른쪽 골반이 2cm 정도 높다고했고 그 때문에 척추가 12도 정도 기울었다고 하는데 이것이 원인이 될 수 있는지?=&gt; 부정렬 증후군으로 인한 증상일 가능성 있습니다.혹은 디스크의 가능성은 있는지?(다리로 내려가는 통증은 전혀 없습니다.)가 궁금합니다.=&gt; 방사통이 전혀 없더라도디스크성 통증일 수 있습니다.즉 증상만으로 위 두 가지를 감별하거나 단정지어 말할 수 없습니다.그에 따른 해결법은 무엇인지?=&gt; 증상 지속시 재활의학과 진료후 필요한 치료 상담받으세요.디스크 동반되었는지부정렬 증후군만 있는지에 따라 치료 계획이 달라지겠지만근본적으로 바른 자세, 올바른 재활치료를 해야 기능회복과 재발방지에 도움이 될 겁니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 재활의학과 상담의 김재호입니다.회전근개 손상으로 인한 유착성 관절낭염이 온 것 같습니다.주사로 염증반응을 줄이고 통증 호전은 할 수 있겠지만근본치료인 재활운동치료는 물리치료와 함께 꾸준히 해야할 것 같습니다.일어날 때만 아프다면 진통소염제 복용하고일상생활 (샤워 세수 근무시 등)에서도 많이 아프고 불편하면 주사 한번 정도는 더 맞아볼 수도 있습니다.상체 운동은 금하고, 그쪽으로 옆으로 누워서 자는 것도 피하세요.정확한 상태는 어깨 MRI찍으면 됩니다.증상이 지속되면 견관절전문 정형외과 재활의학과 진료후 필요한 검사 치료 받으세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의학박사/전문의 오명진입니다.일단 웨이트를 하시는것 같은데 주의하시면서 해주시는게 좋을것 같습니다회전근개에 문제가 생긴것으로 보이고오십견이라고 한다면 움직임제한과 야간통증을 특징적으로 갖습니다아픈어깨가 눌리지도 않는 안정된 자세에도 밤에 누워있을때 아픈것이지요보통 회전근개 문제는 파열이라 하더라도 봉침치료로 회복이 가능하십니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의학박사/전문의 오명진입니다.인후부에 실제적인 염증이 없이 식도염이라고 한다면다른 원인을 살펴봐야 할 것입니다목에 무엇인가 걸려있는듯한데 가래로 나오지 않는다면 매핵기를 의심해 볼 수 있습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의락박사/전문의 오명진입니다.관절의 부딪힘으로인해 소리가 날 수 있습니다상기증상은 소위말해 테니스엘보우나 골프엘보가 있는지 부터 검사하는 것이 좋을 것 같습니다보통은 인대나 건의 염증으로 인해 증상이 발현되므로 전문의에게 진료를 권해드리며한의원에서는 봉침으로 치료가 좋을것 같습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의학박사/전문의 오명진입니다.일자허리의 경우 푹신한 침대가 불편할 수도 있는데요보통 일자허리를 갖고 있는 분이 허리디스크를 갖고 있는경우가 많습니다.허리디스크는 딱딱한 침대에서 편안함을 느끼고 협착증은 반대로 푹신한 침대에서 편안함을 느낄 수 있습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 한의학박사/전문의 오명진입니다.일단 다리로 내려가는 통증이 있고 없고의 차이가 디스크 여부를 결정하지 않습니다디스크가 중앙으로 나오는 경우 요통만 주소증으로 갖고 있을 수도 있습니다기립근 부위가 맞는지 체크도 필요합니다보통 허리부위에서 문제되는 근육은 요방형근이라는 근육인데 꼭 기립근 처럼 나타나기도 합니다그리고 기립근은 목부터 허리까지 이어지는 근육인데등부위도 통증이 있는지 체크하는것도 중요합니다기본적으로 추나치료로 교정하고 침치료로 호전되는 경우가 많습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 치과 상담의 여병영입니다.치료 받으셨던 곳이 못미더우면다른 치과에 가셔서 치료 받으셔도 됩니다.지금 상황을 잘 설명 해주시구요.레진 치료 한 곳 표면을 잘 처리 해서 그 위에 추가로 할 수 있습니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 치과 상담의 여병영입니다.치료 전 보다 낮은 느낌이라면주변을 깍는 것으로 문제가 해결되진 않을거 같습니다.그부분을 다시 레진으로 메꾸는 치료를 고려해보심이 좋을 듯 합니다 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 피부과 상담의 남상호입니다.Q1.​ 건선인가요?? 피부염인가요 아니면 땀띠 같은 두드러기인가요?사진상 소견으로는 건선 보다는 유건선 계열의 질환이 의심되네요. 구체적으로 들어가 보면 소판상 유건선이나 만성 태선양 비강진 등이 의심스럽군요. Q2. 만약 건선인데 어차피 산정특례도 안된다면 스테로이드 약을 한달마다 복용해서 일반인처럼 사는게 더 좋은 방법이 아닐까요,,?? 스테로이드 한달마다 복용해도 될까요? (바르는 약은 거의 1년간 계속 발랐습니다.)건선이나 유건선이나 치료 방법은 비슷한 점이 많습니다. 어쨌든 수년 이상 지속된 만성 피부염이므로 경구 스테로이드의 장기 복용은 권하지 않습니다. 복용하는 동안은 호전되지만 약 기운이 떨어지면 "rebound 현상'이 반복되기 때문이지요. 장기간 복용 시 의인성 쿠싱증후군(iatrogenic Cushing‘s syndrome)의 우려도 있고요. 만일 의인성 쿠싱증후군이 생긴다면 그건 바로 '혹을 떼려다가 혹을 붙이는' 격이 되는 겁니다. 항히스타민제 정도를 복용하면서 연고를 발라서 호전시키되 병변의 수가 너무 많아서 감당이 안 되면 광선치료를 고려해야 합니다. 광선치료는 대학병원에서 받는 것이 현실적으로 가장 좋습니다. 문의에 도움이 되었기를 바랍니다. 감사합니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 안과 상담의 안한철입니다.다래끼가 나서 온찜질을 했다고 하셨는데 병원에서 진단을 받으신건지 궁금하네요실제로는 온찜질이 필요없는 경우, 혹은 했을때 더 불편한 다른 질환인 경우가 있으므로 주의를 요합니다.온찜질후에 이전에 치료했던 부위가 붉게 변했다고 하셨는데 일단 사진상으로는 정확한 현재 상태를 판단하기는 힘든것 같습니다.하지만 질문자님께서 하신 방법이 과도한 온찜질방식이 아니므로 현재 사진상의 부위는 조금 지켜봐도 될 듯하나만일 통증이나 붓기 등이 지속된다면 주변안과에 가서 정확한 진단 및 치료를 받으실것을 권합니다.도움이 되셨으면 합니다.감사합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 비뇨의학과 상담의 이정우입니다.검사는 더이상 필요없을것 같습니다. 만성전립선염 증상이 발현된 것 같으며, 소염진통제 포함한 약물 치료하면서 반신욕 자주하시고 증상의 변화를 살펴야 할것 같습니다. 임파선 부종이 있으면 염증이 아직 남아있기 때문에 장기적으로 항생제를 복용하는 것을 추천드립니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 신경과 상담의 박종원입니다.입술 근처가 굳을때는 혈액순환장애가 흔합니다.혈액순환제는 큰 도움이 되지 않고 뒷목을 반복적으로 물리치료를 하거나 마사지를 하면 호전될 수 있습니다.걱정이 되서 병원을 가신다면 신경과를 가보시면 되겠습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.가슴은 대칭을 이루는 것이 보통이나 둘 사이에 모양이 조금 다를 수 있습니다. 비대칭이 심하다가 생각되시면 유방 검진을 받는 것이 좋습니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 안과 상담의 우성욱입니다.다래끼가 나게 되면 눈거풀이 붓기 때문에 쌍꺼풀이 없어지거나 또는 새로 생기는 경우도 있습니다. 또한 다래끼를 절개한 후 아무는 과정에서도 조직변형이 일어나서 쌍꺼풀에 영향을 줄 수 있습니다. 하지만 대부분의 경우 염증 관리를 잘 하고 시간이 지나면 원상회복되는 경우가 많습니다. 따라서 절개 후 염증관리를 잘 하면서 경과를 보시기 바랍니다. 회복기간은 다래끼의 위치, 크기 그리고 절개로 인한 반응정도에 따라 다르기 때문에 개별적으로 언급하기는 어렵습니다. 도움이 되셨으면 합니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.걱정 많으셨나요? 제가 보기로는 흑변으로 보이지는 않습니다. 자꾸 반복되거나 하면 대변검사를 한 번 받아보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.질문주셔서 감사합니다. 혈당이 밀린다는 것은 천천히 떨어진다는 이야기 인가요?  한가지 이유로 설명은 어렵습니다.식사 빨리하시는거, 드시는 음식의 종류, 활동량, 췌장기능 모두 영향이 있습니다. 당화 혈색소는 얼마인가요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 피부과 상담의 홍성재입니다.비만인 분들은 혈관 내 중성지방이나 콜레스테롤 등의 영향으로 혈관이 깨끗하지 못할 가능성이 큽니다. 이로 인해 모발에 영양공급이 충분하게 되지 않아 탈모가 생길 수 있구요,,, 반대로  다이어트로 인해 음식섭취량을 갑자기 제한하면 이또한 모발에 영양공급이 부족하게 되어 탈모가 발생할 수 있습니다.갑상선기능저하증이 있는 경우에도 모발이 쉽게 끊어지거나 탈모증상을 동반할 수 있습니다.어떤 약물이냐에 따라 다를 수 있지만 특히 임신 준비중이라면 먹는 약물의 사용에 주의가 필요하므로 병원을 방문하여 의사의 진단을 받아보는 것이 좋겠습니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 내과 상담의 조병현입니다.밤과 낮의 장 운동이 다르다면호르몬 신경전달물질 등의 차이에 의한 것이 의심되고그럴경우 과민성대장 증후군을 의심해 볼 수 있습니다.답변이 도움되었다면 추천 부탁드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 피부과 상담의 남상호입니다.문의하신 내용과 올려 주신 사진만 보아서는 접촉피부염이 가장 의심됩니다. 물론 햇빛에 의한 광피부염도 가능하고요. 접촉피부염은 자기 피부에 맞지 않거나 자극을 주는 물질이 일정시간 이상 동안 피부와 접촉했을 때 나타나는 피부 질환으로 크게 자극성 접촉피부염과 알레르기성 접촉피부염으로 나뉩니다. 또, 환자들에 따라서는 땀을 흘린 후 그런 증상이 나타나는 경우가 많으며 바닷물이나 강물과 접촉한 후에 생기는 경우도 있습니다. 알레르기성 접촉피부염은 자기 피부에 맞지 않아서 알레르기를 유발하는 물질에 의해 생기며 대표적인 예로는 옻, 은행, 니켈과 같은 금속, 염색약, 파스 등이 있습니다. 같은 물질에 똑같이 접촉을 해도 특정 사람에서만 반응이 나타납니다. 비교적 흔하게 알레르기를 유발하는 물질에 대해서는 피부과에서 검사를 해 볼 수 있습니다. 자극성 접촉피부염은 피부에 자극을 줄 수 있는 물질에 대해 반응이 나타나는 것으로 산성 물질, 알코올 등이 대표적인 예입니다. 해당 물질들은 전부는 아니지만 대다수의 사람에서 자극 반응을 일으키는 경향이 있습니다. 흔히 ‘풀독’이라고 말하는 건 풀이나 나무가 피부에 닿은 후 피부 발진이 생긴 접촉피부염을 의미합니다. 예를 들어 옻나무 잎사귀가 닿아서 생겼다면 알레르기성 접촉피부염일 것이고 알러지가 원인이 아니고 단순한 자극에 의해 생겼다면 자극성 접촉피부염일 겁니다. 둘 중 어느 경우이든 간에 약물치료로 잘 호전됩니다.병원으로 내원하시어 피부과 전문의에게 보다 자세한 진료를 받고 치료를 받는 것이 가장 좋을 것 같습니다. 문의에 도움이 되었기를 바랍니다. 감사합니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 비뇨의학과 상담의 변상권입니다.말씀만으로는 정확한 답변을 드리기 어려우나혈뇨 1 정도면 일시적인 가능성이 높기 때문에다른 질환이 없다면 한달 후 다시 확인검사만 하시는 것이 보통입니다.물론 정확한 것은 진료 받으신 병원으로 문의하시면 좋을 것 같습니다.답변이 되었는지 모르겠네요.좋은 하루 되세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.가임기였나요? 그렇다면 걱정 많으시죠?  가능성이야 그리 높지 않아보입니다만  걱정많으시면 사후 피임약 복용도 고려해보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 김상엽입니다.목 뼈가 틀어진 것인지에 대해 걱정이신 것 같습니다.높은 베개를 베고 목이 돌아간 채로 주무시면,견갑거근과 승모근을 비롯한 근육이 단축이 되는 경우가 있을 수 있습니다. 근육이 짧아지게 되면 목뼈가 틀어질 수도 있고 목에 뻐근한 증상이 생기기 때문에 이 경우에는 침치료를 통해 개선에 도움을 받아보실 수 있겠습니다.이러한 점을 염두하여 한의원 내원을 고려해 보시길 바랍니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.걱정 많으신가요? 생긴지는 얼마나 되셨나요? 제가 보기에는 일시적으로 나타난 현상으로 생각되니 경과를 지켜보셔도될 것으로 생각됩니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 강기원입니다.증상은 역류성식도염이 맞지만 타질환의 가능성을 배제할순 없을것 같습니다.우선 진료받았던 병원에서 한번 더 상담을 받아 보시기 바랍니다.역류성식도염은 심하지 않으면 단기간에 좋아지기도 하지만진행된지 오래됐거나 증상이 심하면 금방 좋아지지 않는 경우가 많습니다.단순 위산분비억제제 외에도 침치료, 한약치료, 식이관리 등 적극적인 치료를 권해드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.모든 약은 간이나 신장으로 대사 배설 되기 때문에 주기적으로 간기능 검사와 신장 기능 검사를 하셔서 간부전이나 신부전 소견은 없는 지 체크하셔야 합니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 내과 상담의 조병현입니다.10일이나 지났다면 면역 형성에 스테로이드가 별다른 영향을 주지는않을 것으로 생각됩니다.답변이 도움되었다면 추천 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 내과 상담의 조병현입니다.현재 보이는 심전도에서는 별다른 문제가 보이지 않습니다.휴일에도 증상이 있는지요 ?직장 스트레스를 배제해야 할 것 같습니다.필요시 항불안증 약물이 도움될 수도 있습니다.주치의 선생님이나 정신의학과 선생님과 상의해 보세요.답변이 도움되었다면 추천 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 내과 상담의 조병현입니다.일반적으로 변이형 협심증 때 베타블로커는 처방 안하긴 하지만빈맥의 심하거나 부정맥이 심한 경우에는 불가피하게 처방하기도 합니다.체중 감량이 현재 상태에 도움이 될 것으로 보입니다. 체중 조절 및 현재 약물 복용하면서 경과 관찰해보십시오.답변이 도움되었다면 추천 부탁드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 응급의학과 상담의 한재병입니다.기질적인 문제가 있을 가능성이 높아보이지는 않지만, 우선 이비인후과 진료를 먼저 받아보신 뒤 필요하다면 삼킴검사를 받아야 할수도 있습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 피부과 상담의 김우진입니다.새끼 발톱에 선이 보이기 시작하셔서 걱정이되시군요.먼저 사진으로만 봤을 때에는 나타나는 육안관찰이 어려워정확한 병명 여부를 확인할 수 없기 때문에 확실한 진단과 판단은 어렵습니다.조금 더 병변이 잘 보이는 좋은 화질의 선명한 사진을 첨부해주시면최대한의 답변을 드릴 수 있으나 첨부해주신 사진으로는 판단이 어려운 점이 있습니다.오른쪽 발톱의 끝 부분에 변색이 보이는데 사진 상으로는 검은줄 처럼 보이지는 않습니다.검은줄이 생기셨다면 흑색종 보다는 흑색 선조를 의심할 수 있습니다.그러나 흑색선조보다는 발톱 끝 부분이 누렇게 변한 것을 보아문제성발톱, 내성발톱, 발톱무좀 등의 원인에 따른 변색으로 추측이 됩니다.발톱이 쉽게 갈라지거나 부서지신다면, 또한 표면이 울퉁불퉁해지신다면특히나 발톱무좀을 더욱 더 의심해보시기 바랍니다.발톱 무좀의 경우에는 의사의 육안관찰과 KOH검사 등을 통해 진단이 가능합니다.사진 상 진단에는 한계가 있고선명한 사진을 보고 정보를 드린 것이 아니기 때문에직접 전문의 병원을 내원하셔서 검사를 받아보시는 것이 필요합니다.그러므로 빠른 시일 내에 동네 가까운 피부과에 전문의 병원을 내원하셔서 정확한 진단 받으시고 꾸준한 치료와 관리를 시작하시기 바랍니다.답변이 도움이 되셨길 바랍니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 내과 상담의 조병현입니다.알코올은 단기적으로 혈관 확장 효과가 있어 일시적인 혈압 저하가 있을 수 있습니다.다만 장기적으로는 동맥경화를 조장하기 때문에 향후 혈압 상승의 가능성이 있습니다.답변이 도움되었다면 추천 부탁드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 산부인과 상담의 이신입니다.네 충분히 잘 쉬면서 치료하시면 어렵지 않게 금세 회복될겁니다.너무 걱정하지 않으셔도 된답니다.다만 다음에도 혹시 반복된다면 크기가 작았을때 조기치료하시길 권해드립니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.사진을 한장 올려 주셨으면 좋았을 것을요. 증상이 있는 점은 일단 의심을 해보시는 것이 좋습니다. 피부과 진료 받아보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 강기원입니다.타고난 소화기능이 약하신가 보네요.아직 연령이 젊으니 잘 관리하면 좋아질 수 있습니다.몸에 좋은걸 먹는것도 필요하지만 먹으면 안될 음식을 철저히 제한하는게 보통은 더 중요합니다.평소에 잘 소화되지 않던 음식들을 끊으시고 몸상태에 맞는 식이관리를 기본적으로 하셔야 합니다.추가적으로 소화기능에 도움이 되는 건강기능식품도 좋고 한의원에서 한약, 침치료 등도 병행하시길 권해드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 상담약사 김정호입니다.간수치도 종류가 여러가지 있어서 정확한 상담은 수치표를 보여주시면 도움이 될 것 같습니다.다슬기 엑기스가 간수치 저하에 도움이 된다는 이야기는 있지만 약간 근거는 부족한편인 것 같구요.200정도의 간수치는 실리마린 제제나 비타민B군을 충분히 복용하시면 금방 떨어뜨릴 수 있는 수치입니다.다만 간수치가 200까지 올라간 원인을 분석하고 교정하지 않으면 수치는 다시 올라갈 수 밖에 없습니다.1. 술을 많이 드신다면 줄여주셔야 하구요,  당분간 끊으시는것이 제일 좋습니다.2. 단 음식이나, 밀가루 음식을 많이 주신다면 끊거나 최대한 줄여주세요.3. 평소 장 건강이 좋지 않으시면 유산균을 섭취하면서 장을 관리해 주셔야 합니다. 장에서 간으로 들어가는 독소 때문에 간수치가 상승하는 경우도 매우 많습니다.어머니의 경우는 공복혈당이 많이 높은편이시네요. 이 상태가 지속되면 당뇨로 진단되게 되구요.마찬가지로 당 수치가 올라간 원인을 파악해서 교정을 하셔야 당뇨로 빠지지 않을 수 있습니다.기본적인 식습관은 위에 적어드린 것과 비슷합니다.그리고 운동을 하셔서 근육량을 늘려야 공복혈당 수치를 낮출 수 있구요.공복혈당이 높으신걸 보면 어머님도 간이 좋지는 않으실 것 같습니다.마찬가지로 간의 대사를 돕고 회복하는 영양소와 유산균을 드시고 규칙적인 운동을 하시는 것을 권해드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 정형외과 상담의 허성우입니다.많은 부작용 이야기를 들었지만, 처음 듣는 종류 같습니다.인과성을 규명하기엔 다소... 대부분 전신 반응이 일반적이기 때문입니다.   불편감 있으시면 기다리지 마시고 우선은 정형외과 방문하시어 발가락 자체를 확인해 보시는 것이 우선일 듯 합니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 비뇨의학과 상담의 이영진입니다.헤르페스,곤지름,매독이 아니라 하시고 습진성 수포라는 진단을 받으셨군요.에이즈의 가능성은 거의 없습니다.피부과에서 정확한 진단을 한번 받도록 하십시요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.피부 종기 소견으로 보입니다. 멸균 거즈와 생리식염수를 이용하여 드레싱 하시고 고름이나 농양은 배농을 시도해보세요. 잘 못 하실 것 같으면 외과 병원으로 오세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 가정의학과 상담의 홍인표입니다.같이 드셔도 큰 문제는 없을 것으로 생각됩니다. 약 처방을 추가로 받게 되는 경우에는 드시는 약을 미리 알리셔서  처방에  참고하시도록 하시는 것이 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 산부인과 상담의 김정선입니다.6월 23일 생리 후 성관계가 7월 2일 단 한 번만 있으셨다면,  임신 여부를 확인  가능한 시기입니다.   임신테스트 해 보거나 산부인과 방문하셔서 임신 여부 확인 받으세요.7월 2일 이후에도 성관계가 있었다면, 이야기가 달라질 수 있습니다.  임신가능성 있다면 접종을 미루는 것이 좋겠습니다.  코로나백신이 임신에 미치는 영향이 아직 밝혀지지 않았기 때문입니다.임신가능성 없다면, 백신 접종 후 부정출혈을 걱정하실 필요 없습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 정형외과 상담의 허성우입니다.우선은 이비인후과를 가시어 내부를 살피는 것이 우선일 듯 합니다.물론 일반적으로 근골격계 문제로 목이 아플 수도 있습니다만, 질문 주신 내용이 내부 문제일 때도 나타날 수 있기  때문입니다.이비인후과적으로 문제가 없다면 정형외과나 신경외과 방문을 해보셔도 되겠습니다.감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 치과 상담의 여병영입니다.구강 작열감 이라고 증상이 있습니다.말씀해주신 증상이 계속 반복된다면구강내과로 가셔서 검사를 한번 받아보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 치과 상담의 여병영입니다.이온음료가 생각보다산도도 강하고 당성분도 많이 있습니다.드신 후 물로 가볍게 여러번 헹궈주시고운동 끝난 후 양치질 잘 해주시면 됩니다^^</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 치과 상담의 여병영입니다.임플란트 하신 곳 지속적으로 불편감과 통증 있으시다면검진을 다시 한번 받아보시는 것이 좋습니다.뿌리 쪽 고름은 바깥에서 확인될 수도 안될 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 응급의학과 상담의 한재병입니다.어떠한 이유로 복용중인지 몰라 정확한 답은 어렵지만, 화*자 접종 이후 말씀하신 스테로이드나 항히스타민 복용은 가능합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 신장내과 상담의 손태용입니다.접종 후에 CRP는 증가할 수 있습니다.신우신염은 증상이 심하기 때문에 증상이 없다면 신우신염 가능성이 거의 없습니다.세균이 있다고 다 치료할 필요는 없습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 응급의학과 상담의 한재병입니다.어떻게 다친 이후 깁스인가에 따라 다를 수 있습니다. 참지 못할 정도로 많이 불편하다면 해당 병원에 재문의 해보시기를 권유합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 최선형입니다.첨부해드린 사진은 2016년 대한갑상선학회 갑상선 결절 및 암 진료 권고안입니다. 증상이 없는 갑상선 낭종은 암의 가능성이 거의 없으므로 조직검사가 필요하지 않으며, 증상이 있는 경우에는 증상 호전을 위해서 흡인 또는 에탄올절제술이 권고되고 있습니다. 이번 검진결과 낭종 5mm라면 추적 관찰 하시다가 크기 증가나 초음파 소견이 바뀔 경우에 조직검사 시행해 보시면 될 것 같습니다. 가까운 병원에서 꾸준히 추적관찰 하시기 바랍니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 응급의학과 상담의 한재병입니다.말씀하신 CRP 상승 수치 정도로 신우신염 재발을 걱정하지는 않아도 될 듯합니다. 마지막 소변검사에서도 균이 안 나오기에 걱정하지 않으셔도 될 듯합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.네 그렇습니다. 대표적인 증상이 연하곤란, 속쓰림 역류증세 만성 기침으로 연하곤란 증상이 발생하면 위내시경 검사 나 후두경 검사를 받아보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.흉골 앞쪽을 말씀하신 것으로 보이는데 그 곳에는 질환이 잘 발생하지 않습니다. 지방종의 가능성이 높아 보이니 외과 전문 병원에서 엑스선 검사와 초음파 검사 해보세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 대장항문 상담의 이주연입니다.마*밀을 어느정도 드셨는지는 모르나 ...  개인차이가 있죠.참외 무 무청시래기 새싹보리 등도 많이 도움이 됩니다.그리고 유산균도 약과 더불어 무가당 요구르트도 충분히 드시면 좋죠.물도 충분히 마시셔야 합니다.  그리고 단백질도 필요합니다.마*밀이 체내 흡수가 잘안되어 과잉증이 드믈지만 끊었다가 다시 드시는 것도 좋겟습니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 강기원입니다.대장내시경 권해드립니다.식이관리 철저히 하고 계신지도 체크해 보세요.기질적인 문제 없이 철저한 식이관리로도 호전 없다면한의원에 내원해 한약치료 받으시길 권해드립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.네 그렇습니다. 통증이 지속된다면 병원에 가셔서 미세골절 등을 감별하기 위해서 엑스선 검사를 받으실 필요가 있어 보입니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 산부인과 상담의 한지운입니다. 계속 비임신이면 임신의 가능성이 매우 낮습니다. 생리도 두번 제대로 하신 것이니 크게 걱정하지 않으셔도 됩니다. 평소 양 처럼 제대로 생리하는지만 확인하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 정형외과 상담의 조태환입니다.갈비뼈인 늑골에 선상의 조그마한 골절은 안정이 치료입니다.숨을 쉬거나 기침을 할 때 통증이 심하면 테이핑이나 복대와 같은 보호대를 사용합니다.아파도 참을 정도라면 적당한 산책은 필요합니다.늑골 골절이 유합되는 기간은 한 달로 보기 때문에 한 달 동안 조심하라는 것입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.질 점막 의 경미한 손상이 의심됩니다. 질 입구 통증이나 하혈증상이 지속되거나 심해지면 산부인과 질정 치료 받으시는 것이 좋을 듯 합니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 안과 상담의 김재봉입니다.사진으로 봤을 때는 눈에 이물질이 들어간것 같네요. 가까운 안과에 가서 제거하시면 눈에 이물감이 사라질거에요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 이비인후과 상담의 강현우입니다.염증 가라 앉히는 약을 먹으면 좀 더 빨리 좋아질수도 있긴 하지만당뇨가 있으시면 쓸 수 없는 약이라 어렵고성대결절은 말을 최대한 안하고 목소리를 아껴야 하고 보통 인후두역류증이 동반되는 경우가 많으므로 커피, 흡연, 술, 식사후 눕는것등을 피하는 등 평소 생활습관을 고쳐야 좋아집니다.말을 많이 하면 약을 먹어도 안좋아 질수 있고 지속되는 경우 수술적 치료가 필요하고수술을 한 경우에는 1개월 간 말을 절대 안할것을 권유하니 그 전에 먹는 약과 생활습관 교정으로 최대한 호전되도록 노력해보시는 것이 좋을 것 같습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.피부 연성 섬유종이나 지방종일 가능성이 높아 보입니다. 사마귀 병변과의 정확한 감별을 위해 피부과에서 확대경 검사를 받아보시기 바랍니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 상담약사 김민한입니다.생리가 멀지않아서 괜찮을 것으로 보입니다.불안하시면 사후피임약 처방을 받는걸 권합니다.최대한 빨리 복용할수록 피임효과가 좋습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.임신가능성은 낮아보이나 피임이 불완전하니 사후피임약을 복용하셔야 할 듯 합니다. 3~4주 이후 임테기를 여러번 해보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 오명진입니다.디스크 때문에 저린감이 들수도 있고 통증이 나타날수도 있습니다.일단 접근할 수 있는것은 발뒤꿈치쪽 패드에 문제가 있을것으로 보여집니다.발바닥 아치가 제대로 형성이 되어 있는지 슬리퍼 같은 신발은 피해주시고종아리를 잘 풀어주시면 좋을 것 같습니다.신경학적증상이 나타나는 경우 허리디스크 MRI검사를 요하고약침이나 봉침등의 소염진통작용으로 치료가능할것으로 보입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.대장내시경 검사 만으로 대장암인지 아닌지 감별이 가능합니다. 다만 암의 확진은 반드시 조직검사를 통해서 이루어집니다. 대장암으로 보여도 실제 조직검사에서 아닌 경우가 드물게 나오기 때문입니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.가래와 기침 증상이 심하다면 문제가 될 수 있으나 보통의 경우에는 기관지염 소견에 의한 객담 변화로 보입니다. 흉부 시티 촬영하시면 좋을 듯 합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.소변검사상 요 잠혈 1 양성은 심한 소견이 절대 아닙니다. 바로 다시 검사를 받으시거나 수분을 충분히 드신 후 수일이내 재검사하시면 됩니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.둘 다 약국에서 구입이 가능하며 약국마다 제약사별로 약제 이름이 다르기 때문에 위의 기재된 약이름 얘기하시면 약국에 상비하고 있는 약으로 대체해서 구입할 수 있습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.가급적이며 위내시경 직후 첫 식사는 가벼운 미음이나 죽을 조금 드시는 것이 좋습니다. 서서히 식사량을 늘리시고 자극적인 매운음식은 삼가하는 것이 좋습니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.자가치료가 가능해보입니다. 가능하면 사진을 찍어서 올려주시면 보다 정확한 답변을 드릴 수 있습니다. 습윤 드레싱을 해주세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.네 그렇습니다. 집 근처에 비뇨의학과 병원에서도 수면 마취 가능하리라 사료됩니다. 다만 가시기 전에 전화 문의 하시면 됩니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.드시고 싶은 음식은 자유롭게 드시게 하셔도 무방할 듯 합니다. 췌장 미부 절제술로 위공장우회술을 받지 않으셨으므로 가능할 듯 합니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 외과 상담의 송슬기입니다.멸균 거즈와 멸균 생리식염수를 이용하여 드레싱 하시고 메*폼이나 테*솝을 이용하여 습윤 드레싱 유지 해주세요.  2주 이후에 흉터 연고 도포 하세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 산부인과 상담의 박효경입니다. 소량의 피가 흘러나올 수 있습니다. 너무 걱정하지 마시고, 결과 기다려 보세요. 따가운 느낌, 가려움증 등의 불편감이 심하시다면 병원에 내원하는 것이 좋습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.흑색장의 원인이 되는 약초 중 알로에가 있다는 거지 알로에를 드시면 반드시 흑색장으로 가는 것은 아닙니다. 대장내시경상 흑색장 소견이 있고 이전에 알로에는 드시고 다른 원인이 없다면 알로에 섭취는 중단하는 것을 권합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.코로나 백신을 맞으시고 혹시라도 이상반응이나 부작용으로 열이 난다고 하더라도 주변사람 즉 가족이나 다른 사람간 전염은 되지 않습니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 오명진입니다.건초염이 맞는 표현입니다~아마도 한번 문제가 생긴 발목관절이 무리가 되면 약해져 있기 때문에 반복해서 염증이 생기는 것 같습니다.발목은 우리 몸의 신체를 제일 아래서 지탱하기 때문에 걷는 자세같은 부분이 교정이 되야 반복되지 않습니다.추나요법 등의 교정치료를 겸하여 골반이나 척추가 틀어진 부분이 없는지 x다리나 o다리는 아닌지 확인이 필요해 보입니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 오명진입니다.상담하신 내용 중에 허벅지 뒤쪽, 무릎은 슬괵근(햄스트링)과 관련이 많기 때문에 그쪽 근육의 긴장이 되어있는지 먼저 보시는게 좋 을것 같습니다.만일 문제가 있다면 한의원에서 추나치료나 침치료로 풀어보는 것이 좋을 거 같습니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 대장항문 상담의 조선연입니다.약에 대한 부작용 보다는 치핵이 더욱 심해진 형태로 생각됩니다.통증이 심하며 밖으로 돌출되어 나오는 치핵이라면, 수술이 필요 할 수도 있습니다.가까운 항외과에 방문하시어 약물 치료가 좋을지 수술적 치료가 좋을지 상담 받아 보시는 것이 좋겠습니다.감사합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 안과 상담의 정중영입니다.화질이 안 좋은 영상을 본다고 특별히 더 눈에 나쁘거나 하지 않습니다.  화질의 선명도와는 관계없이 컴퓨터나 휴대용 화면을 볼 때 느끼는 일반적인 눈의 피로감 등이 있을 수 있겠습니다. 답변이 도움이 되었으면 합니다.  감사합니다.    </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 대장항문 상담의 이주연입니다.종기일 수 있습니다만 단순 종기로 보입니다.오늘내일 좀 커지면 살짝 배농하는 것도 좋습니다. 그리고 파란 부분은 췌피로 심각해 보이지는 않습니다만 원래 부풀기도 하니 원하시면 제거하실 수도 있습니다.급한 건 아니죠. 빨간 부분은 치루까지 되지는 않을 것으로 보이며 관찰하시다가 잘 치료 받으셔요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 대장항문 상담의 이주연입니다.잘 알고 계시듯 혈전입니다. 서서히 더 흡수되어 납작해질 것이고 사진상으로 100%는 아니지만 수술은 현재로선 더 필요해 보이지 않습니다.한 달이상 걸립니다. 너무 맘 졸이지마시고 잘 지내셔요.참고로 혈전성 치핵 이나 치핵수술해도 괄약근이 약해지는 건 아닙니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 정형외과 상담의 임경린입니다.손에 관한 문의이군요. 해당 부위는 엄지를 움직이는 근육이 모여있는 곳입니다. 튀어나와 보이는 것은 엄지를 조절하는 근육입니다. 근육이 발달한 것인데 만약 통증이 생기면 검사를 해보시기 바랍니다. 가끔 종양이나 낭종(물주머니)이 생기기도 합니다. 감사합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 산부인과 상담의 한지운입니다. 두번째 달부터는 빠지지않고  잘 드셨다면 피임 효과가 90% 이상입니다. 따라서 사후피임약을 따로 드시지는 않으셔도 되겠습니다.  생리주기와 상관없이 머시론은 계속 3주 복용 1주 휴약 사이클을 잘 지키시면 됩니다. </t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 안과 상담의 우성욱입니다.화질이 나쁘다고 나쁜 광선이 나와서 눈에 해를 끼치지는 않습니다. 다만 해상도가 떨어지면 선명한 시자극으로 만들기 위해 우리 눈은 더 집중하게 되고 더 일을 하게 됩니다. 이렇게 되면 눈피로와 안구건조증이 더 많이 생기게 되어 눈에 무리를 주게 됩니다. 따라서 화질이 안좋은 영상을 장시간이나 자주 보는 것은 눈건강에 좋지 못 합니다.도움이 되셨으면 합니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 성형외과 상담의 하성윤입니다.예전에 비해 눈꺼풀의 수북해짐으로 고민이시군요.이 경우 쌍꺼풀 높이를 낮게 잡아서 절개법으로 수술하시면수북한 느낌을 줄이면서 눈이 커보이실 수 있습니다.주변 성형외과에 가셔서 한번 상담해 보세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 한방과 상담의 오명진입니다.백회혈 부위 통증이 나타나는 경우 머리를 싸고있는 근육의 근막의 통증일 가능성도 있습니다.보통은 머리근육 근막은 목근육과 연관통이 있을수 있기 때문에목을 추나 요법으로 교정해주고 백회 혈부위를 침구치료 하면 호전될 수도 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. 하이닥 외과 상담의 송슬기입니다.발뒤꿈치 통증은 족저근막염이 가장 흔하며 팻 패드 증후군이나 발뒤꿈치 뼈의 골절로 인해서 통증이 생길 수도 있습니다. 정형외과에서 검사 로 감별 가능합니다. </t>
   </si>
 </sst>
 </file>
@@ -459,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,201 +1380,1674 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="E5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
